--- a/LR3/table_1_38.xlsx
+++ b/LR3/table_1_38.xlsx
@@ -212,13 +212,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -535,8 +538,8 @@
     <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" style="1" customWidth="1"/>
@@ -552,37 +555,37 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2062,21 +2065,21 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B41" s="1">

--- a/LR3/table_1_38.xlsx
+++ b/LR3/table_1_38.xlsx
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -631,6 +631,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
+        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -672,13 +673,14 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
+        <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
@@ -713,13 +715,14 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
@@ -754,13 +757,14 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
@@ -795,13 +799,14 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
@@ -836,13 +841,14 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
@@ -877,13 +883,14 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
@@ -918,13 +925,14 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
@@ -959,13 +967,14 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
@@ -1000,13 +1009,14 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
@@ -1041,13 +1051,14 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
@@ -1082,13 +1093,14 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
@@ -1123,13 +1135,14 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
@@ -1164,13 +1177,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
@@ -1205,13 +1219,14 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
@@ -1246,13 +1261,14 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
@@ -1287,13 +1303,14 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
@@ -1328,13 +1345,14 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
@@ -1369,13 +1387,14 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
@@ -1410,13 +1429,14 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
@@ -1451,13 +1471,14 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
@@ -1492,13 +1513,14 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
@@ -1533,13 +1555,14 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
@@ -1574,13 +1597,14 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
@@ -1615,13 +1639,14 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
@@ -1656,13 +1681,14 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
@@ -1697,13 +1723,14 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
@@ -1738,13 +1765,14 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
@@ -1779,13 +1807,14 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
@@ -1820,13 +1849,14 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
@@ -1861,13 +1891,14 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
@@ -1885,7 +1916,7 @@
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" ref="H34:H38" si="5">IF(G34+30&lt;F34,0,G34-F34)</f>
+        <f t="shared" ref="H34:H38" si="6">IF(G34+30&lt;F34,0,G34-F34)</f>
         <v>23</v>
       </c>
       <c r="I34" s="1">
@@ -1902,13 +1933,14 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
@@ -1926,7 +1958,7 @@
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
@@ -1943,13 +1975,14 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
@@ -1967,7 +2000,7 @@
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
@@ -1984,13 +2017,14 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
@@ -2008,7 +2042,7 @@
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
@@ -2025,13 +2059,14 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
@@ -2049,7 +2084,7 @@
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">

--- a/LR3/table_1_38.xlsx
+++ b/LR3/table_1_38.xlsx
@@ -527,16 +527,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="30.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="31.28515625" style="1" customWidth="1"/>
@@ -660,6 +660,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
+        <f>I3</f>
         <v>10</v>
       </c>
       <c r="J4" s="1">
@@ -702,6 +703,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
+        <f t="shared" ref="I5:I38" si="6">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
@@ -744,6 +746,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
@@ -786,6 +789,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
@@ -828,6 +832,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
@@ -870,6 +875,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
@@ -912,6 +918,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
@@ -954,6 +961,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
@@ -996,6 +1004,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="1">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
@@ -1038,6 +1047,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="1">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
@@ -1080,6 +1090,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="1">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
@@ -1122,6 +1133,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="1">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
@@ -1164,6 +1176,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="1">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
@@ -1206,6 +1219,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="1">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
@@ -1248,6 +1262,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="1">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
@@ -1290,6 +1305,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="1">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
@@ -1332,6 +1348,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="1">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
@@ -1374,6 +1391,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
@@ -1416,6 +1434,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="1">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
@@ -1458,6 +1477,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="1">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
@@ -1500,6 +1520,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="1">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
@@ -1542,6 +1563,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="1">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
@@ -1584,6 +1606,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="1">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
@@ -1626,6 +1649,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="1">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
@@ -1668,6 +1692,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="1">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
@@ -1710,6 +1735,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="1">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
@@ -1752,6 +1778,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="1">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
@@ -1794,6 +1821,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="1">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
@@ -1836,6 +1864,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="1">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
@@ -1878,6 +1907,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="1">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
@@ -1916,10 +1946,11 @@
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" ref="H34:H38" si="6">IF(G34+30&lt;F34,0,G34-F34)</f>
+        <f t="shared" ref="H34:H38" si="7">IF(G34+30&lt;F34,0,G34-F34)</f>
         <v>23</v>
       </c>
       <c r="I34" s="1">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
@@ -1958,10 +1989,11 @@
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
@@ -2000,10 +2032,11 @@
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
@@ -2042,10 +2075,11 @@
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
@@ -2084,10 +2118,11 @@
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">
@@ -2099,45 +2134,49 @@
         <v>1267.5</v>
       </c>
     </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="3" t="s">
+      <c r="A40" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>49</v>
+      <c r="B40" s="1">
+        <f>INT(C40)</f>
+        <v>91092</v>
+      </c>
+      <c r="C40" s="1">
+        <f>SUM(K3:K38)</f>
+        <v>91092.6</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B41" s="1">
-        <f>INT(B42)</f>
-        <v>91092</v>
-      </c>
-      <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
-      <c r="D41" s="1">
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="1">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
-      <c r="E41" s="1">
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="1">
         <f>MAX(K3:K38)</f>
         <v>2926.0000000000005</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="1">
-        <f>SUM(K3:K38)</f>
-        <v>91092.6</v>
       </c>
     </row>
   </sheetData>

--- a/LR3/table_1_38.xlsx
+++ b/LR3/table_1_38.xlsx
@@ -530,7 +530,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2135,46 +2135,46 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="1">
-        <f>INT(C40)</f>
+      <c r="C40" s="1">
+        <f>INT(D40)</f>
         <v>91092</v>
       </c>
-      <c r="C40" s="1">
+      <c r="D40" s="1">
         <f>SUM(K3:K38)</f>
         <v>91092.6</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="1">
+      <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="1">
+      <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="1">
+      <c r="C43" s="1">
         <f>MAX(K3:K38)</f>
         <v>2926.0000000000005</v>
       </c>

--- a/LR3/table_1_38.xlsx
+++ b/LR3/table_1_38.xlsx
@@ -34,9 +34,6 @@
     <t>Аминова</t>
   </si>
   <si>
-    <t>Башкирова</t>
-  </si>
-  <si>
     <t>Байрамшин</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
     <t>Лучин</t>
   </si>
   <si>
-    <t>Матижева</t>
-  </si>
-  <si>
     <t>Мифтахов</t>
   </si>
   <si>
@@ -170,6 +164,12 @@
   </si>
   <si>
     <t>Общая сумма "Итого"</t>
+  </si>
+  <si>
+    <t>Башкиро́ва</t>
+  </si>
+  <si>
+    <t>Ма́тижева</t>
   </si>
 </sst>
 </file>
@@ -212,17 +212,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -529,7 +531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
@@ -555,37 +557,37 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -593,38 +595,38 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>70</v>
       </c>
-      <c r="D3" s="1">
-        <f>A1*1.1</f>
-        <v>41.800000000000004</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="D3" s="4">
+        <f>A1*1.1</f>
+        <v>41.800000000000004</v>
+      </c>
+      <c r="E3" s="4">
         <f>C3*D3</f>
         <v>2926.0000000000005</v>
       </c>
-      <c r="F3" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="F3" s="5">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="5">
         <v>44805</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="4">
         <f>IF(G3&lt;F3,0,G3-F3)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="1">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="I3" s="4">
+        <v>10</v>
+      </c>
+      <c r="J3" s="4">
         <f>I3*H3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="4">
         <f>E3+J3</f>
         <v>2926.0000000000005</v>
       </c>
@@ -634,1514 +636,1584 @@
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4">
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="1">
-        <f>A1*1.1</f>
-        <v>41.800000000000004</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4" s="4">
+        <f>A1*1.1</f>
+        <v>41.800000000000004</v>
+      </c>
+      <c r="E4" s="4">
         <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>2905.1000000000004</v>
       </c>
-      <c r="F4" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="F4" s="5">
+        <f>F3</f>
+        <v>44813</v>
+      </c>
+      <c r="G4" s="5">
+        <f>G3+1</f>
         <v>44806</v>
       </c>
-      <c r="H4" s="1">
-        <f t="shared" ref="H4:H32" si="1">IF(G4&lt;F4,0,G4-F4)</f>
+      <c r="H4" s="4">
+        <f>IF(G4&lt;F4,0,G4-F4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="4">
         <f>I3</f>
         <v>10</v>
       </c>
-      <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="2">I4*H4</f>
+      <c r="J4" s="4">
+        <f t="shared" ref="J4:J38" si="1">I4*H4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="1">
-        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
+      <c r="K4" s="4">
+        <f>E4+J4</f>
         <v>2905.1000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f t="shared" ref="A5:A38" si="4">A4+1</f>
+        <f t="shared" ref="A5:A38" si="2">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
+      <c r="B5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" ref="C5:C38" si="3">C4-0.5</f>
         <v>69</v>
       </c>
-      <c r="D5" s="1">
-        <f>A1*1.1</f>
-        <v>41.800000000000004</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5" s="4">
+        <f>A1*1.1</f>
+        <v>41.800000000000004</v>
+      </c>
+      <c r="E5" s="4">
         <f t="shared" si="0"/>
         <v>2884.2000000000003</v>
       </c>
-      <c r="F5" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="F5" s="5">
+        <f t="shared" ref="F5:F38" si="4">F4</f>
+        <v>44813</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" ref="G5:G38" si="5">G4+1</f>
         <v>44807</v>
       </c>
-      <c r="H5" s="1">
-        <f t="shared" si="1"/>
+      <c r="H5" s="4">
+        <f t="shared" ref="H5:H38" si="6">IF(G5&lt;F5,0,G5-F5)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="1">
-        <f t="shared" ref="I5:I38" si="6">I4</f>
-        <v>10</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" si="2"/>
+      <c r="I5" s="4">
+        <f t="shared" ref="I5:I38" si="7">I4</f>
+        <v>10</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K5" s="1">
-        <f t="shared" si="3"/>
+      <c r="K5" s="4">
+        <f t="shared" ref="K4:K38" si="8">E5+J5</f>
         <v>2884.2000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" si="5"/>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" si="3"/>
         <v>68.5</v>
       </c>
-      <c r="D6" s="1">
-        <f>A1*1.1</f>
-        <v>41.800000000000004</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6" s="4">
+        <f>A1*1.1</f>
+        <v>41.800000000000004</v>
+      </c>
+      <c r="E6" s="4">
         <f t="shared" si="0"/>
         <v>2863.3</v>
       </c>
-      <c r="F6" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="F6" s="5">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="5"/>
         <v>44808</v>
       </c>
-      <c r="H6" s="1">
-        <f t="shared" si="1"/>
+      <c r="H6" s="4">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I6" s="1">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J6" s="1">
-        <f t="shared" si="2"/>
+      <c r="I6" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K6" s="1">
-        <f t="shared" si="3"/>
+      <c r="K6" s="4">
+        <f t="shared" si="8"/>
         <v>2863.3</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" si="5"/>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
-      <c r="D7" s="1">
-        <f>A1*1.1</f>
-        <v>41.800000000000004</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7" s="4">
+        <f>A1*1.1</f>
+        <v>41.800000000000004</v>
+      </c>
+      <c r="E7" s="4">
         <f t="shared" si="0"/>
         <v>2842.4</v>
       </c>
-      <c r="F7" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="F7" s="5">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="5"/>
         <v>44809</v>
       </c>
-      <c r="H7" s="1">
-        <f t="shared" si="1"/>
+      <c r="H7" s="4">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I7" s="1">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J7" s="1">
-        <f t="shared" si="2"/>
+      <c r="I7" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K7" s="1">
-        <f t="shared" si="3"/>
+      <c r="K7" s="4">
+        <f t="shared" si="8"/>
         <v>2842.4</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1">
-        <f t="shared" si="5"/>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="3"/>
         <v>67.5</v>
       </c>
-      <c r="D8" s="1">
-        <f>A1*1.1</f>
-        <v>41.800000000000004</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D8" s="4">
+        <f>A1*1.1</f>
+        <v>41.800000000000004</v>
+      </c>
+      <c r="E8" s="4">
         <f t="shared" si="0"/>
         <v>2821.5000000000005</v>
       </c>
-      <c r="F8" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="F8" s="5">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="5"/>
         <v>44810</v>
       </c>
-      <c r="H8" s="1">
-        <f t="shared" si="1"/>
+      <c r="H8" s="4">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I8" s="1">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" si="2"/>
+      <c r="I8" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K8" s="1">
-        <f t="shared" si="3"/>
+      <c r="K8" s="4">
+        <f t="shared" si="8"/>
         <v>2821.5000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1">
-        <f t="shared" si="5"/>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="D9" s="1">
-        <f>A1*1.1</f>
-        <v>41.800000000000004</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D9" s="4">
+        <f>A1*1.1</f>
+        <v>41.800000000000004</v>
+      </c>
+      <c r="E9" s="4">
         <f t="shared" si="0"/>
         <v>2800.6000000000004</v>
       </c>
-      <c r="F9" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="F9" s="5">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="5"/>
         <v>44811</v>
       </c>
-      <c r="H9" s="1">
-        <f t="shared" si="1"/>
+      <c r="H9" s="4">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I9" s="1">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J9" s="1">
-        <f t="shared" si="2"/>
+      <c r="I9" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K9" s="1">
-        <f t="shared" si="3"/>
+      <c r="K9" s="4">
+        <f t="shared" si="8"/>
         <v>2800.6000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1">
-        <f t="shared" si="5"/>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" si="3"/>
         <v>66.5</v>
       </c>
-      <c r="D10" s="1">
-        <f>A1*1.1</f>
-        <v>41.800000000000004</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D10" s="4">
+        <f>A1*1.1</f>
+        <v>41.800000000000004</v>
+      </c>
+      <c r="E10" s="4">
         <f t="shared" si="0"/>
         <v>2779.7000000000003</v>
       </c>
-      <c r="F10" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="F10" s="5">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="5"/>
         <v>44812</v>
       </c>
-      <c r="H10" s="1">
-        <f t="shared" si="1"/>
+      <c r="H10" s="4">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I10" s="1">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J10" s="1">
-        <f t="shared" si="2"/>
+      <c r="I10" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K10" s="1">
-        <f t="shared" si="3"/>
+      <c r="K10" s="4">
+        <f t="shared" si="8"/>
         <v>2779.7000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1">
-        <f t="shared" si="5"/>
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
-      <c r="D11" s="1">
-        <f>A1*1.1</f>
-        <v>41.800000000000004</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11" s="4">
+        <f>A1*1.1</f>
+        <v>41.800000000000004</v>
+      </c>
+      <c r="E11" s="4">
         <f t="shared" si="0"/>
         <v>2758.8</v>
       </c>
-      <c r="F11" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G11" s="2">
-        <v>44813</v>
-      </c>
-      <c r="H11" s="1">
-        <f t="shared" si="1"/>
+      <c r="F11" s="5">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="1">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J11" s="1">
-        <f t="shared" si="2"/>
+      <c r="I11" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K11" s="1">
-        <f t="shared" si="3"/>
+      <c r="K11" s="4">
+        <f t="shared" si="8"/>
         <v>2758.8</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" si="3"/>
         <v>65.5</v>
       </c>
-      <c r="D12" s="1">
-        <f>A1*1.1</f>
-        <v>41.800000000000004</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D12" s="4">
+        <f>A1*1.1</f>
+        <v>41.800000000000004</v>
+      </c>
+      <c r="E12" s="4">
         <f t="shared" si="0"/>
         <v>2737.9</v>
       </c>
-      <c r="F12" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="F12" s="5">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="5"/>
         <v>44814</v>
       </c>
-      <c r="H12" s="1">
-        <f t="shared" si="1"/>
+      <c r="H12" s="4">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="I12" s="1">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J12" s="1">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" si="3"/>
+      <c r="I12" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="8"/>
         <v>2747.9</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" si="5"/>
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="D13" s="1">
-        <f>A1*1.1</f>
-        <v>41.800000000000004</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D13" s="4">
+        <f>A1*1.1</f>
+        <v>41.800000000000004</v>
+      </c>
+      <c r="E13" s="4">
         <f t="shared" si="0"/>
         <v>2717.0000000000005</v>
       </c>
-      <c r="F13" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="F13" s="5">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="5"/>
         <v>44815</v>
       </c>
-      <c r="H13" s="1">
-        <f t="shared" si="1"/>
+      <c r="H13" s="4">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="I13" s="1">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J13" s="1">
-        <f t="shared" si="2"/>
+      <c r="I13" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K13" s="1">
-        <f t="shared" si="3"/>
+      <c r="K13" s="4">
+        <f t="shared" si="8"/>
         <v>2737.0000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="1">
-        <f t="shared" si="5"/>
+      <c r="B14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" si="3"/>
         <v>64.5</v>
       </c>
-      <c r="D14" s="1">
-        <f>A1*1.1</f>
-        <v>41.800000000000004</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D14" s="4">
+        <f>A1*1.1</f>
+        <v>41.800000000000004</v>
+      </c>
+      <c r="E14" s="4">
         <f t="shared" si="0"/>
         <v>2696.1000000000004</v>
       </c>
-      <c r="F14" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G14" s="2">
+      <c r="F14" s="5">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="5"/>
         <v>44816</v>
       </c>
-      <c r="H14" s="1">
-        <f t="shared" si="1"/>
+      <c r="H14" s="4">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="I14" s="1">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J14" s="1">
-        <f t="shared" si="2"/>
+      <c r="I14" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="K14" s="1">
-        <f t="shared" si="3"/>
+      <c r="K14" s="4">
+        <f t="shared" si="8"/>
         <v>2726.1000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="1">
-        <f t="shared" si="5"/>
+      <c r="B15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="D15" s="1">
-        <f>A1*1.1</f>
-        <v>41.800000000000004</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="D15" s="4">
+        <f>A1*1.1</f>
+        <v>41.800000000000004</v>
+      </c>
+      <c r="E15" s="4">
         <f t="shared" si="0"/>
         <v>2675.2000000000003</v>
       </c>
-      <c r="F15" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G15" s="2">
+      <c r="F15" s="5">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="5"/>
         <v>44817</v>
       </c>
-      <c r="H15" s="1">
-        <f t="shared" si="1"/>
+      <c r="H15" s="4">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="I15" s="1">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J15" s="1">
-        <f t="shared" si="2"/>
+      <c r="I15" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="K15" s="1">
-        <f t="shared" si="3"/>
+      <c r="K15" s="4">
+        <f t="shared" si="8"/>
         <v>2715.2000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="1">
-        <f t="shared" si="5"/>
+      <c r="B16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" si="3"/>
         <v>63.5</v>
       </c>
-      <c r="D16" s="1">
-        <f>A1*1.1</f>
-        <v>41.800000000000004</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="D16" s="4">
+        <f>A1*1.1</f>
+        <v>41.800000000000004</v>
+      </c>
+      <c r="E16" s="4">
         <f t="shared" si="0"/>
         <v>2654.3</v>
       </c>
-      <c r="F16" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G16" s="2">
+      <c r="F16" s="5">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="5"/>
         <v>44818</v>
       </c>
-      <c r="H16" s="1">
-        <f t="shared" si="1"/>
+      <c r="H16" s="4">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="I16" s="1">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J16" s="1">
-        <f t="shared" si="2"/>
+      <c r="I16" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="K16" s="1">
-        <f t="shared" si="3"/>
+      <c r="K16" s="4">
+        <f t="shared" si="8"/>
         <v>2704.3</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="1">
-        <f t="shared" si="5"/>
+      <c r="B17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
-      <c r="D17" s="1">
-        <f>A1*1.1</f>
-        <v>41.800000000000004</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="D17" s="4">
+        <f>A1*1.1</f>
+        <v>41.800000000000004</v>
+      </c>
+      <c r="E17" s="4">
         <f t="shared" si="0"/>
         <v>2633.4</v>
       </c>
-      <c r="F17" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G17" s="2">
+      <c r="F17" s="5">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="5"/>
         <v>44819</v>
       </c>
-      <c r="H17" s="1">
-        <f t="shared" si="1"/>
+      <c r="H17" s="4">
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="I17" s="1">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J17" s="1">
-        <f t="shared" si="2"/>
+      <c r="I17" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="K17" s="1">
-        <f t="shared" si="3"/>
+      <c r="K17" s="4">
+        <f t="shared" si="8"/>
         <v>2693.4</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="1">
-        <f t="shared" si="5"/>
+      <c r="B18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" si="3"/>
         <v>62.5</v>
       </c>
-      <c r="D18" s="1">
-        <f>A1*1.1</f>
-        <v>41.800000000000004</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="D18" s="4">
+        <f>A1*1.1</f>
+        <v>41.800000000000004</v>
+      </c>
+      <c r="E18" s="4">
         <f t="shared" si="0"/>
         <v>2612.5000000000005</v>
       </c>
-      <c r="F18" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G18" s="2">
+      <c r="F18" s="5">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="5"/>
         <v>44820</v>
       </c>
-      <c r="H18" s="1">
-        <f t="shared" si="1"/>
+      <c r="H18" s="4">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="I18" s="1">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J18" s="1">
-        <f t="shared" si="2"/>
+      <c r="I18" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="K18" s="1">
-        <f t="shared" si="3"/>
+      <c r="K18" s="4">
+        <f t="shared" si="8"/>
         <v>2682.5000000000005</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="1">
-        <f t="shared" si="5"/>
+      <c r="B19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
-      <c r="D19" s="1">
-        <f>A1*1.1</f>
-        <v>41.800000000000004</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="D19" s="4">
+        <f>A1*1.1</f>
+        <v>41.800000000000004</v>
+      </c>
+      <c r="E19" s="4">
         <f t="shared" si="0"/>
         <v>2591.6000000000004</v>
       </c>
-      <c r="F19" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G19" s="2">
+      <c r="F19" s="5">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="5"/>
         <v>44821</v>
       </c>
-      <c r="H19" s="1">
-        <f t="shared" si="1"/>
+      <c r="H19" s="4">
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="I19" s="1">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J19" s="1">
-        <f t="shared" si="2"/>
+      <c r="I19" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="K19" s="1">
-        <f t="shared" si="3"/>
+      <c r="K19" s="4">
+        <f t="shared" si="8"/>
         <v>2671.6000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="1">
-        <f t="shared" si="5"/>
+      <c r="B20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="4">
+        <f t="shared" si="3"/>
         <v>61.5</v>
       </c>
-      <c r="D20" s="1">
-        <f>A1*1.1</f>
-        <v>41.800000000000004</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="D20" s="4">
+        <f>A1*1.1</f>
+        <v>41.800000000000004</v>
+      </c>
+      <c r="E20" s="4">
         <f t="shared" si="0"/>
         <v>2570.7000000000003</v>
       </c>
-      <c r="F20" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G20" s="2">
+      <c r="F20" s="5">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="5"/>
         <v>44822</v>
       </c>
-      <c r="H20" s="1">
-        <f t="shared" si="1"/>
+      <c r="H20" s="4">
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="I20" s="1">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J20" s="1">
-        <f t="shared" si="2"/>
+      <c r="I20" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="K20" s="1">
-        <f t="shared" si="3"/>
+      <c r="K20" s="4">
+        <f t="shared" si="8"/>
         <v>2660.7000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="1">
-        <f t="shared" si="5"/>
+      <c r="B21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
-      <c r="D21" s="1">
-        <f>A1*1.1</f>
-        <v>41.800000000000004</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="D21" s="4">
+        <f>A1*1.1</f>
+        <v>41.800000000000004</v>
+      </c>
+      <c r="E21" s="4">
         <f t="shared" si="0"/>
         <v>2549.8000000000002</v>
       </c>
-      <c r="F21" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="F21" s="5">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" si="5"/>
         <v>44823</v>
       </c>
-      <c r="H21" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="I21" s="1">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J21" s="1">
-        <f t="shared" si="2"/>
+      <c r="H21" s="4">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="K21" s="1">
-        <f t="shared" si="3"/>
+      <c r="K21" s="4">
+        <f t="shared" si="8"/>
         <v>2649.8</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="1">
-        <f t="shared" si="5"/>
+      <c r="B22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" si="3"/>
         <v>60.5</v>
       </c>
-      <c r="D22" s="1">
-        <f>A1*1.1</f>
-        <v>41.800000000000004</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="D22" s="4">
+        <f>A1*1.1</f>
+        <v>41.800000000000004</v>
+      </c>
+      <c r="E22" s="4">
         <f t="shared" si="0"/>
         <v>2528.9</v>
       </c>
-      <c r="F22" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G22" s="2">
+      <c r="F22" s="5">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" si="5"/>
         <v>44824</v>
       </c>
-      <c r="H22" s="1">
-        <f t="shared" si="1"/>
+      <c r="H22" s="4">
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="I22" s="1">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J22" s="1">
-        <f t="shared" si="2"/>
+      <c r="I22" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="K22" s="1">
-        <f t="shared" si="3"/>
+      <c r="K22" s="4">
+        <f t="shared" si="8"/>
         <v>2638.9</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="1">
-        <f t="shared" si="5"/>
+      <c r="B23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="D23" s="1">
-        <f>A1*1.1</f>
-        <v>41.800000000000004</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="D23" s="4">
+        <f>A1*1.1</f>
+        <v>41.800000000000004</v>
+      </c>
+      <c r="E23" s="4">
         <f t="shared" si="0"/>
         <v>2508.0000000000005</v>
       </c>
-      <c r="F23" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G23" s="2">
+      <c r="F23" s="5">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="5"/>
         <v>44825</v>
       </c>
-      <c r="H23" s="1">
-        <f t="shared" si="1"/>
+      <c r="H23" s="4">
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="I23" s="1">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J23" s="1">
-        <f t="shared" si="2"/>
+      <c r="I23" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="K23" s="1">
-        <f t="shared" si="3"/>
+      <c r="K23" s="4">
+        <f t="shared" si="8"/>
         <v>2628.0000000000005</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="1">
-        <f t="shared" si="5"/>
+      <c r="B24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" si="3"/>
         <v>59.5</v>
       </c>
-      <c r="D24" s="1">
-        <f>A1*1.1</f>
-        <v>41.800000000000004</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="D24" s="4">
+        <f>A1*1.1</f>
+        <v>41.800000000000004</v>
+      </c>
+      <c r="E24" s="4">
         <f t="shared" si="0"/>
         <v>2487.1000000000004</v>
       </c>
-      <c r="F24" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G24" s="2">
+      <c r="F24" s="5">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="5"/>
         <v>44826</v>
       </c>
-      <c r="H24" s="1">
-        <f t="shared" si="1"/>
+      <c r="H24" s="4">
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="I24" s="1">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J24" s="1">
-        <f t="shared" si="2"/>
+      <c r="I24" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="K24" s="1">
-        <f t="shared" si="3"/>
+      <c r="K24" s="4">
+        <f t="shared" si="8"/>
         <v>2617.1000000000004</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="1">
-        <f t="shared" si="5"/>
+      <c r="B25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="4">
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="D25" s="1">
-        <f>A1*1.1</f>
-        <v>41.800000000000004</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="D25" s="4">
+        <f>A1*1.1</f>
+        <v>41.800000000000004</v>
+      </c>
+      <c r="E25" s="4">
         <f t="shared" si="0"/>
         <v>2466.2000000000003</v>
       </c>
-      <c r="F25" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G25" s="2">
+      <c r="F25" s="5">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="5"/>
         <v>44827</v>
       </c>
-      <c r="H25" s="1">
-        <f t="shared" si="1"/>
+      <c r="H25" s="4">
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="I25" s="1">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J25" s="1">
-        <f t="shared" si="2"/>
+      <c r="I25" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J25" s="4">
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="K25" s="1">
-        <f t="shared" si="3"/>
+      <c r="K25" s="4">
+        <f t="shared" si="8"/>
         <v>2606.2000000000003</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="1">
-        <f t="shared" si="5"/>
+      <c r="B26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" si="3"/>
         <v>58.5</v>
       </c>
-      <c r="D26" s="1">
-        <f>A1*1.1</f>
-        <v>41.800000000000004</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="D26" s="4">
+        <f>A1*1.1</f>
+        <v>41.800000000000004</v>
+      </c>
+      <c r="E26" s="4">
         <f t="shared" si="0"/>
         <v>2445.3000000000002</v>
       </c>
-      <c r="F26" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G26" s="2">
+      <c r="F26" s="5">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="5"/>
         <v>44828</v>
       </c>
-      <c r="H26" s="1">
-        <f t="shared" si="1"/>
+      <c r="H26" s="4">
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="I26" s="1">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J26" s="1">
-        <f t="shared" si="2"/>
+      <c r="I26" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J26" s="4">
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="K26" s="1">
-        <f t="shared" si="3"/>
+      <c r="K26" s="4">
+        <f t="shared" si="8"/>
         <v>2595.3000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="1">
-        <f t="shared" si="5"/>
+      <c r="B27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="4">
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="D27" s="1">
-        <f>A1*1.1</f>
-        <v>41.800000000000004</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="D27" s="4">
+        <f>A1*1.1</f>
+        <v>41.800000000000004</v>
+      </c>
+      <c r="E27" s="4">
         <f t="shared" si="0"/>
         <v>2424.4</v>
       </c>
-      <c r="F27" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G27" s="2">
+      <c r="F27" s="5">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="5"/>
         <v>44829</v>
       </c>
-      <c r="H27" s="1">
-        <f t="shared" si="1"/>
+      <c r="H27" s="4">
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="I27" s="1">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J27" s="1">
-        <f t="shared" si="2"/>
+      <c r="I27" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J27" s="4">
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="K27" s="1">
-        <f t="shared" si="3"/>
+      <c r="K27" s="4">
+        <f t="shared" si="8"/>
         <v>2584.4</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="1">
-        <f t="shared" si="5"/>
+      <c r="B28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="4">
+        <f t="shared" si="3"/>
         <v>57.5</v>
       </c>
-      <c r="D28" s="1">
-        <f>A1*1.1</f>
-        <v>41.800000000000004</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="D28" s="4">
+        <f>A1*1.1</f>
+        <v>41.800000000000004</v>
+      </c>
+      <c r="E28" s="4">
         <f t="shared" si="0"/>
         <v>2403.5000000000005</v>
       </c>
-      <c r="F28" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G28" s="2">
+      <c r="F28" s="5">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="5"/>
         <v>44830</v>
       </c>
-      <c r="H28" s="1">
-        <f t="shared" si="1"/>
+      <c r="H28" s="4">
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="I28" s="1">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J28" s="1">
-        <f t="shared" si="2"/>
+      <c r="I28" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J28" s="4">
+        <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="K28" s="1">
-        <f t="shared" si="3"/>
+      <c r="K28" s="4">
+        <f t="shared" si="8"/>
         <v>2573.5000000000005</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="1">
-        <f t="shared" si="5"/>
+      <c r="B29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="4">
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
-      <c r="D29" s="1">
-        <f>A1*1.1</f>
-        <v>41.800000000000004</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="D29" s="4">
+        <f>A1*1.1</f>
+        <v>41.800000000000004</v>
+      </c>
+      <c r="E29" s="4">
         <f t="shared" si="0"/>
         <v>2382.6000000000004</v>
       </c>
-      <c r="F29" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G29" s="2">
+      <c r="F29" s="5">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" si="5"/>
         <v>44831</v>
       </c>
-      <c r="H29" s="1">
-        <f t="shared" si="1"/>
+      <c r="H29" s="4">
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
-      <c r="I29" s="1">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J29" s="1">
-        <f t="shared" si="2"/>
+      <c r="I29" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J29" s="4">
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="K29" s="1">
-        <f t="shared" si="3"/>
+      <c r="K29" s="4">
+        <f t="shared" si="8"/>
         <v>2562.6000000000004</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="1">
-        <f t="shared" si="5"/>
+      <c r="B30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="4">
+        <f t="shared" si="3"/>
         <v>56.5</v>
       </c>
-      <c r="D30" s="1">
-        <f>A1*1.1</f>
-        <v>41.800000000000004</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="D30" s="4">
+        <f>A1*1.1</f>
+        <v>41.800000000000004</v>
+      </c>
+      <c r="E30" s="4">
         <f t="shared" si="0"/>
         <v>2361.7000000000003</v>
       </c>
-      <c r="F30" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G30" s="2">
+      <c r="F30" s="5">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" si="5"/>
         <v>44832</v>
       </c>
-      <c r="H30" s="1">
-        <f t="shared" si="1"/>
+      <c r="H30" s="4">
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="I30" s="1">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J30" s="1">
-        <f t="shared" si="2"/>
+      <c r="I30" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J30" s="4">
+        <f t="shared" si="1"/>
         <v>190</v>
       </c>
-      <c r="K30" s="1">
-        <f t="shared" si="3"/>
+      <c r="K30" s="4">
+        <f t="shared" si="8"/>
         <v>2551.7000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="1">
-        <f t="shared" si="5"/>
+      <c r="B31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="4">
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="D31" s="1">
-        <f>A1*1.1</f>
-        <v>41.800000000000004</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="D31" s="4">
+        <f>A1*1.1</f>
+        <v>41.800000000000004</v>
+      </c>
+      <c r="E31" s="4">
         <f t="shared" si="0"/>
         <v>2340.8000000000002</v>
       </c>
-      <c r="F31" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G31" s="2">
+      <c r="F31" s="5">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="5"/>
         <v>44833</v>
       </c>
-      <c r="H31" s="1">
-        <f t="shared" si="1"/>
+      <c r="H31" s="4">
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="I31" s="1">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J31" s="1">
-        <f t="shared" si="2"/>
+      <c r="I31" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J31" s="4">
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="K31" s="1">
-        <f t="shared" si="3"/>
+      <c r="K31" s="4">
+        <f t="shared" si="8"/>
         <v>2540.8000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="1">
-        <f t="shared" si="5"/>
+      <c r="B32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="4">
+        <f t="shared" si="3"/>
         <v>55.5</v>
       </c>
-      <c r="D32" s="1">
-        <f>A1*1.1</f>
-        <v>41.800000000000004</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="D32" s="4">
+        <f>A1*1.1</f>
+        <v>41.800000000000004</v>
+      </c>
+      <c r="E32" s="4">
         <f t="shared" si="0"/>
         <v>2319.9</v>
       </c>
-      <c r="F32" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G32" s="2">
+      <c r="F32" s="5">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="5"/>
         <v>44834</v>
       </c>
-      <c r="H32" s="1">
-        <f t="shared" si="1"/>
+      <c r="H32" s="4">
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="I32" s="1">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J32" s="1">
-        <f t="shared" si="2"/>
+      <c r="I32" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J32" s="4">
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
-      <c r="K32" s="1">
-        <f t="shared" si="3"/>
+      <c r="K32" s="4">
+        <f t="shared" si="8"/>
         <v>2529.9</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="1">
-        <f t="shared" si="5"/>
+      <c r="B33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="4">
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="D33" s="1">
-        <f>A1*1.1</f>
-        <v>41.800000000000004</v>
-      </c>
-      <c r="E33" s="1">
+      <c r="D33" s="4">
+        <f>A1*1.1</f>
+        <v>41.800000000000004</v>
+      </c>
+      <c r="E33" s="4">
         <f t="shared" si="0"/>
         <v>2299.0000000000005</v>
       </c>
-      <c r="F33" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G33" s="2">
+      <c r="F33" s="5">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" si="5"/>
         <v>44835</v>
       </c>
-      <c r="H33" s="1">
-        <f>IF(G33+30&lt;F33,0,G33-F33)</f>
+      <c r="H33" s="4">
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="I33" s="1">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J33" s="1">
-        <f t="shared" si="2"/>
+      <c r="I33" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J33" s="4">
+        <f t="shared" si="1"/>
         <v>220</v>
       </c>
-      <c r="K33" s="1">
-        <f t="shared" si="3"/>
+      <c r="K33" s="4">
+        <f t="shared" si="8"/>
         <v>2519.0000000000005</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="1">
-        <f t="shared" si="5"/>
+      <c r="B34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="4">
+        <f t="shared" si="3"/>
         <v>54.5</v>
       </c>
-      <c r="D34" s="1">
-        <f>A1*1.1</f>
-        <v>41.800000000000004</v>
-      </c>
-      <c r="E34" s="1">
+      <c r="D34" s="4">
+        <f>A1*1.1</f>
+        <v>41.800000000000004</v>
+      </c>
+      <c r="E34" s="4">
         <f t="shared" si="0"/>
         <v>2278.1000000000004</v>
       </c>
-      <c r="F34" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G34" s="2">
+      <c r="F34" s="5">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="5">
+        <f t="shared" si="5"/>
         <v>44836</v>
       </c>
-      <c r="H34" s="1">
-        <f t="shared" ref="H34:H38" si="7">IF(G34+30&lt;F34,0,G34-F34)</f>
+      <c r="H34" s="4">
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
-      <c r="I34" s="1">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J34" s="1">
-        <f t="shared" si="2"/>
+      <c r="I34" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J34" s="4">
+        <f t="shared" si="1"/>
         <v>230</v>
       </c>
-      <c r="K34" s="1">
-        <f t="shared" si="3"/>
+      <c r="K34" s="4">
+        <f t="shared" si="8"/>
         <v>2508.1000000000004</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="1">
-        <f t="shared" si="5"/>
+      <c r="B35" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="4">
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="4">
         <f>A1/2</f>
         <v>19</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="4">
         <f t="shared" si="0"/>
         <v>1026</v>
       </c>
-      <c r="F35" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G35" s="2">
+      <c r="F35" s="5">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="5">
+        <f t="shared" si="5"/>
         <v>44837</v>
       </c>
-      <c r="H35" s="1">
-        <f t="shared" si="7"/>
+      <c r="H35" s="4">
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="I35" s="1">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J35" s="1">
-        <f t="shared" si="2"/>
+      <c r="I35" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J35" s="4">
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="K35" s="1">
-        <f t="shared" si="3"/>
+      <c r="K35" s="4">
+        <f t="shared" si="8"/>
         <v>1266</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="1">
-        <f t="shared" si="5"/>
+      <c r="B36" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="4">
+        <f t="shared" si="3"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="4">
         <f>A1/2</f>
         <v>19</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="4">
         <f t="shared" si="0"/>
         <v>1016.5</v>
       </c>
-      <c r="F36" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G36" s="2">
+      <c r="F36" s="5">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="5">
+        <f t="shared" si="5"/>
         <v>44838</v>
       </c>
-      <c r="H36" s="1">
-        <f t="shared" si="7"/>
+      <c r="H36" s="4">
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="I36" s="1">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J36" s="1">
-        <f t="shared" si="2"/>
+      <c r="I36" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J36" s="4">
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="K36" s="1">
-        <f t="shared" si="3"/>
+      <c r="K36" s="4">
+        <f t="shared" si="8"/>
         <v>1266.5</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="1">
-        <f t="shared" si="5"/>
+      <c r="B37" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="4">
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="4">
         <f>A1/2</f>
         <v>19</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="4">
         <f t="shared" si="0"/>
         <v>1007</v>
       </c>
-      <c r="F37" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G37" s="2">
+      <c r="F37" s="5">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="5">
+        <f t="shared" si="5"/>
         <v>44839</v>
       </c>
-      <c r="H37" s="1">
-        <f t="shared" si="7"/>
+      <c r="H37" s="4">
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
-      <c r="I37" s="1">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J37" s="1">
-        <f t="shared" si="2"/>
+      <c r="I37" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J37" s="4">
+        <f t="shared" si="1"/>
         <v>260</v>
       </c>
-      <c r="K37" s="1">
-        <f t="shared" si="3"/>
+      <c r="K37" s="4">
+        <f t="shared" si="8"/>
         <v>1267</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="1">
-        <f t="shared" si="5"/>
+      <c r="B38" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="4">
+        <f t="shared" si="3"/>
         <v>52.5</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="4">
         <f>A1/2</f>
         <v>19</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="4">
         <f t="shared" si="0"/>
         <v>997.5</v>
       </c>
-      <c r="F38" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G38" s="2">
+      <c r="F38" s="5">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="5">
+        <f t="shared" si="5"/>
         <v>44840</v>
       </c>
-      <c r="H38" s="1">
-        <f t="shared" si="7"/>
+      <c r="H38" s="4">
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
-      <c r="I38" s="1">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J38" s="1">
-        <f t="shared" si="2"/>
+      <c r="I38" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J38" s="4">
+        <f t="shared" si="1"/>
         <v>270</v>
       </c>
-      <c r="K38" s="1">
-        <f t="shared" si="3"/>
+      <c r="K38" s="4">
+        <f t="shared" si="8"/>
         <v>1267.5</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="3" t="s">
-        <v>50</v>
+      <c r="B40" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="C40" s="1">
         <f>INT(D40)</f>
@@ -2153,8 +2225,8 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="3" t="s">
-        <v>47</v>
+      <c r="B41" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2162,8 +2234,8 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="3" t="s">
-        <v>48</v>
+      <c r="B42" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2171,8 +2243,8 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="3" t="s">
-        <v>49</v>
+      <c r="B43" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_38.xlsx
+++ b/LR3/table_1_38.xlsx
@@ -531,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -644,7 +644,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="4">
-        <f>A1*1.1</f>
+        <f>IF((A4 / 4 &lt;= 8),$D$3, $D$3/2)</f>
         <v>41.800000000000004</v>
       </c>
       <c r="E4" s="4">
@@ -689,7 +689,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="4">
-        <f>A1*1.1</f>
+        <f t="shared" ref="D5:D38" si="4">IF((A5 / 4 &lt;= 8),$D$3, $D$3/2)</f>
         <v>41.800000000000004</v>
       </c>
       <c r="E5" s="4">
@@ -697,19 +697,19 @@
         <v>2884.2000000000003</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F38" si="4">F4</f>
+        <f t="shared" ref="F5:F38" si="5">F4</f>
         <v>44813</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" ref="G5:G38" si="5">G4+1</f>
+        <f t="shared" ref="G5:G38" si="6">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" ref="H5:H38" si="6">IF(G5&lt;F5,0,G5-F5)</f>
+        <f t="shared" ref="H5:H38" si="7">IF(G5&lt;F5,0,G5-F5)</f>
         <v>0</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" ref="I5:I38" si="7">I4</f>
+        <f t="shared" ref="I5:I38" si="8">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="4">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="4">
-        <f t="shared" ref="K4:K38" si="8">E5+J5</f>
+        <f t="shared" ref="K5:K38" si="9">E5+J5</f>
         <v>2884.2000000000003</v>
       </c>
     </row>
@@ -734,7 +734,7 @@
         <v>68.5</v>
       </c>
       <c r="D6" s="4">
-        <f>A1*1.1</f>
+        <f t="shared" si="4"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E6" s="4">
@@ -742,19 +742,19 @@
         <v>2863.3</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G6" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44808</v>
       </c>
       <c r="H6" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I6" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J6" s="4">
@@ -762,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2863.3</v>
       </c>
     </row>
@@ -779,7 +779,7 @@
         <v>68</v>
       </c>
       <c r="D7" s="4">
-        <f>A1*1.1</f>
+        <f t="shared" si="4"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E7" s="4">
@@ -787,19 +787,19 @@
         <v>2842.4</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44809</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I7" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J7" s="4">
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2842.4</v>
       </c>
     </row>
@@ -824,7 +824,7 @@
         <v>67.5</v>
       </c>
       <c r="D8" s="4">
-        <f>A1*1.1</f>
+        <f t="shared" si="4"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E8" s="4">
@@ -832,19 +832,19 @@
         <v>2821.5000000000005</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G8" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44810</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I8" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J8" s="4">
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2821.5000000000005</v>
       </c>
     </row>
@@ -869,7 +869,7 @@
         <v>67</v>
       </c>
       <c r="D9" s="4">
-        <f>A1*1.1</f>
+        <f t="shared" si="4"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E9" s="4">
@@ -877,19 +877,19 @@
         <v>2800.6000000000004</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44811</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J9" s="4">
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2800.6000000000004</v>
       </c>
     </row>
@@ -914,7 +914,7 @@
         <v>66.5</v>
       </c>
       <c r="D10" s="4">
-        <f>A1*1.1</f>
+        <f t="shared" si="4"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E10" s="4">
@@ -922,19 +922,19 @@
         <v>2779.7000000000003</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44812</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J10" s="4">
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2779.7000000000003</v>
       </c>
     </row>
@@ -959,7 +959,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="4">
-        <f>A1*1.1</f>
+        <f t="shared" si="4"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E11" s="4">
@@ -967,19 +967,19 @@
         <v>2758.8</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J11" s="4">
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2758.8</v>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
         <v>65.5</v>
       </c>
       <c r="D12" s="4">
-        <f>A1*1.1</f>
+        <f t="shared" si="4"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E12" s="4">
@@ -1012,19 +1012,19 @@
         <v>2737.9</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44814</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J12" s="4">
@@ -1032,7 +1032,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2747.9</v>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
         <v>65</v>
       </c>
       <c r="D13" s="4">
-        <f>A1*1.1</f>
+        <f t="shared" si="4"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E13" s="4">
@@ -1057,19 +1057,19 @@
         <v>2717.0000000000005</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G13" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44815</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J13" s="4">
@@ -1077,7 +1077,7 @@
         <v>20</v>
       </c>
       <c r="K13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2737.0000000000005</v>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
         <v>64.5</v>
       </c>
       <c r="D14" s="4">
-        <f>A1*1.1</f>
+        <f t="shared" si="4"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E14" s="4">
@@ -1102,19 +1102,19 @@
         <v>2696.1000000000004</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G14" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44816</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J14" s="4">
@@ -1122,7 +1122,7 @@
         <v>30</v>
       </c>
       <c r="K14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2726.1000000000004</v>
       </c>
     </row>
@@ -1139,7 +1139,7 @@
         <v>64</v>
       </c>
       <c r="D15" s="4">
-        <f>A1*1.1</f>
+        <f t="shared" si="4"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E15" s="4">
@@ -1147,19 +1147,19 @@
         <v>2675.2000000000003</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44817</v>
       </c>
       <c r="H15" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J15" s="4">
@@ -1167,7 +1167,7 @@
         <v>40</v>
       </c>
       <c r="K15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2715.2000000000003</v>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
         <v>63.5</v>
       </c>
       <c r="D16" s="4">
-        <f>A1*1.1</f>
+        <f t="shared" si="4"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E16" s="4">
@@ -1192,19 +1192,19 @@
         <v>2654.3</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G16" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44818</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J16" s="4">
@@ -1212,7 +1212,7 @@
         <v>50</v>
       </c>
       <c r="K16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2704.3</v>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
         <v>63</v>
       </c>
       <c r="D17" s="4">
-        <f>A1*1.1</f>
+        <f t="shared" si="4"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E17" s="4">
@@ -1237,19 +1237,19 @@
         <v>2633.4</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G17" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44819</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J17" s="4">
@@ -1257,7 +1257,7 @@
         <v>60</v>
       </c>
       <c r="K17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2693.4</v>
       </c>
     </row>
@@ -1274,7 +1274,7 @@
         <v>62.5</v>
       </c>
       <c r="D18" s="4">
-        <f>A1*1.1</f>
+        <f t="shared" si="4"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E18" s="4">
@@ -1282,19 +1282,19 @@
         <v>2612.5000000000005</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44820</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J18" s="4">
@@ -1302,7 +1302,7 @@
         <v>70</v>
       </c>
       <c r="K18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2682.5000000000005</v>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
         <v>62</v>
       </c>
       <c r="D19" s="4">
-        <f>A1*1.1</f>
+        <f t="shared" si="4"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E19" s="4">
@@ -1327,19 +1327,19 @@
         <v>2591.6000000000004</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G19" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44821</v>
       </c>
       <c r="H19" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J19" s="4">
@@ -1347,7 +1347,7 @@
         <v>80</v>
       </c>
       <c r="K19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2671.6000000000004</v>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
         <v>61.5</v>
       </c>
       <c r="D20" s="4">
-        <f>A1*1.1</f>
+        <f t="shared" si="4"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E20" s="4">
@@ -1372,19 +1372,19 @@
         <v>2570.7000000000003</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G20" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44822</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J20" s="4">
@@ -1392,7 +1392,7 @@
         <v>90</v>
       </c>
       <c r="K20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2660.7000000000003</v>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
         <v>61</v>
       </c>
       <c r="D21" s="4">
-        <f>A1*1.1</f>
+        <f t="shared" si="4"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E21" s="4">
@@ -1417,19 +1417,19 @@
         <v>2549.8000000000002</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44823</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J21" s="4">
@@ -1437,7 +1437,7 @@
         <v>100</v>
       </c>
       <c r="K21" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2649.8</v>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
         <v>60.5</v>
       </c>
       <c r="D22" s="4">
-        <f>A1*1.1</f>
+        <f t="shared" si="4"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E22" s="4">
@@ -1462,19 +1462,19 @@
         <v>2528.9</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44824</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J22" s="4">
@@ -1482,7 +1482,7 @@
         <v>110</v>
       </c>
       <c r="K22" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2638.9</v>
       </c>
     </row>
@@ -1499,7 +1499,7 @@
         <v>60</v>
       </c>
       <c r="D23" s="4">
-        <f>A1*1.1</f>
+        <f t="shared" si="4"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E23" s="4">
@@ -1507,19 +1507,19 @@
         <v>2508.0000000000005</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44825</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J23" s="4">
@@ -1527,7 +1527,7 @@
         <v>120</v>
       </c>
       <c r="K23" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2628.0000000000005</v>
       </c>
     </row>
@@ -1544,7 +1544,7 @@
         <v>59.5</v>
       </c>
       <c r="D24" s="4">
-        <f>A1*1.1</f>
+        <f t="shared" si="4"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E24" s="4">
@@ -1552,19 +1552,19 @@
         <v>2487.1000000000004</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G24" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44826</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J24" s="4">
@@ -1572,7 +1572,7 @@
         <v>130</v>
       </c>
       <c r="K24" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2617.1000000000004</v>
       </c>
     </row>
@@ -1589,7 +1589,7 @@
         <v>59</v>
       </c>
       <c r="D25" s="4">
-        <f>A1*1.1</f>
+        <f t="shared" si="4"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E25" s="4">
@@ -1597,19 +1597,19 @@
         <v>2466.2000000000003</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G25" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44827</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="I25" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J25" s="4">
@@ -1617,7 +1617,7 @@
         <v>140</v>
       </c>
       <c r="K25" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2606.2000000000003</v>
       </c>
     </row>
@@ -1634,7 +1634,7 @@
         <v>58.5</v>
       </c>
       <c r="D26" s="4">
-        <f>A1*1.1</f>
+        <f t="shared" si="4"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E26" s="4">
@@ -1642,19 +1642,19 @@
         <v>2445.3000000000002</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44828</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J26" s="4">
@@ -1662,7 +1662,7 @@
         <v>150</v>
       </c>
       <c r="K26" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2595.3000000000002</v>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
         <v>58</v>
       </c>
       <c r="D27" s="4">
-        <f>A1*1.1</f>
+        <f t="shared" si="4"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E27" s="4">
@@ -1687,19 +1687,19 @@
         <v>2424.4</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G27" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44829</v>
       </c>
       <c r="H27" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J27" s="4">
@@ -1707,7 +1707,7 @@
         <v>160</v>
       </c>
       <c r="K27" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2584.4</v>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
         <v>57.5</v>
       </c>
       <c r="D28" s="4">
-        <f>A1*1.1</f>
+        <f t="shared" si="4"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E28" s="4">
@@ -1732,19 +1732,19 @@
         <v>2403.5000000000005</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G28" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44830</v>
       </c>
       <c r="H28" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J28" s="4">
@@ -1752,7 +1752,7 @@
         <v>170</v>
       </c>
       <c r="K28" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2573.5000000000005</v>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
         <v>57</v>
       </c>
       <c r="D29" s="4">
-        <f>A1*1.1</f>
+        <f t="shared" si="4"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E29" s="4">
@@ -1777,19 +1777,19 @@
         <v>2382.6000000000004</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G29" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44831</v>
       </c>
       <c r="H29" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J29" s="4">
@@ -1797,7 +1797,7 @@
         <v>180</v>
       </c>
       <c r="K29" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2562.6000000000004</v>
       </c>
     </row>
@@ -1814,7 +1814,7 @@
         <v>56.5</v>
       </c>
       <c r="D30" s="4">
-        <f>A1*1.1</f>
+        <f t="shared" si="4"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E30" s="4">
@@ -1822,19 +1822,19 @@
         <v>2361.7000000000003</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G30" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44832</v>
       </c>
       <c r="H30" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="I30" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J30" s="4">
@@ -1842,7 +1842,7 @@
         <v>190</v>
       </c>
       <c r="K30" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2551.7000000000003</v>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
         <v>56</v>
       </c>
       <c r="D31" s="4">
-        <f>A1*1.1</f>
+        <f t="shared" si="4"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E31" s="4">
@@ -1867,19 +1867,19 @@
         <v>2340.8000000000002</v>
       </c>
       <c r="F31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G31" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44833</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J31" s="4">
@@ -1887,7 +1887,7 @@
         <v>200</v>
       </c>
       <c r="K31" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2540.8000000000002</v>
       </c>
     </row>
@@ -1904,7 +1904,7 @@
         <v>55.5</v>
       </c>
       <c r="D32" s="4">
-        <f>A1*1.1</f>
+        <f t="shared" si="4"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E32" s="4">
@@ -1912,19 +1912,19 @@
         <v>2319.9</v>
       </c>
       <c r="F32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G32" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44834</v>
       </c>
       <c r="H32" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="I32" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J32" s="4">
@@ -1932,7 +1932,7 @@
         <v>210</v>
       </c>
       <c r="K32" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2529.9</v>
       </c>
     </row>
@@ -1949,7 +1949,7 @@
         <v>55</v>
       </c>
       <c r="D33" s="4">
-        <f>A1*1.1</f>
+        <f t="shared" si="4"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E33" s="4">
@@ -1957,19 +1957,19 @@
         <v>2299.0000000000005</v>
       </c>
       <c r="F33" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G33" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44835</v>
       </c>
       <c r="H33" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="I33" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J33" s="4">
@@ -1977,7 +1977,7 @@
         <v>220</v>
       </c>
       <c r="K33" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2519.0000000000005</v>
       </c>
     </row>
@@ -1994,7 +1994,7 @@
         <v>54.5</v>
       </c>
       <c r="D34" s="4">
-        <f>A1*1.1</f>
+        <f t="shared" si="4"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E34" s="4">
@@ -2002,19 +2002,19 @@
         <v>2278.1000000000004</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G34" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44836</v>
       </c>
       <c r="H34" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="I34" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J34" s="4">
@@ -2022,7 +2022,7 @@
         <v>230</v>
       </c>
       <c r="K34" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2508.1000000000004</v>
       </c>
     </row>
@@ -2039,27 +2039,27 @@
         <v>54</v>
       </c>
       <c r="D35" s="4">
-        <f>A1/2</f>
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20.900000000000002</v>
       </c>
       <c r="E35" s="4">
         <f t="shared" si="0"/>
-        <v>1026</v>
+        <v>1128.6000000000001</v>
       </c>
       <c r="F35" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G35" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44837</v>
       </c>
       <c r="H35" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="I35" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J35" s="4">
@@ -2067,8 +2067,8 @@
         <v>240</v>
       </c>
       <c r="K35" s="4">
-        <f t="shared" si="8"/>
-        <v>1266</v>
+        <f t="shared" si="9"/>
+        <v>1368.6000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2084,27 +2084,27 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="4">
-        <f>A1/2</f>
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20.900000000000002</v>
       </c>
       <c r="E36" s="4">
         <f t="shared" si="0"/>
-        <v>1016.5</v>
+        <v>1118.1500000000001</v>
       </c>
       <c r="F36" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G36" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44838</v>
       </c>
       <c r="H36" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="I36" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J36" s="4">
@@ -2112,8 +2112,8 @@
         <v>250</v>
       </c>
       <c r="K36" s="4">
-        <f t="shared" si="8"/>
-        <v>1266.5</v>
+        <f t="shared" si="9"/>
+        <v>1368.15</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2129,27 +2129,27 @@
         <v>53</v>
       </c>
       <c r="D37" s="4">
-        <f>A1/2</f>
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20.900000000000002</v>
       </c>
       <c r="E37" s="4">
         <f t="shared" si="0"/>
-        <v>1007</v>
+        <v>1107.7</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G37" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44839</v>
       </c>
       <c r="H37" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="I37" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J37" s="4">
@@ -2157,8 +2157,8 @@
         <v>260</v>
       </c>
       <c r="K37" s="4">
-        <f t="shared" si="8"/>
-        <v>1267</v>
+        <f t="shared" si="9"/>
+        <v>1367.7</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2174,27 +2174,27 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="4">
-        <f>A1/2</f>
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20.900000000000002</v>
       </c>
       <c r="E38" s="4">
         <f t="shared" si="0"/>
-        <v>997.5</v>
+        <v>1097.25</v>
       </c>
       <c r="F38" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G38" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44840</v>
       </c>
       <c r="H38" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
       <c r="I38" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J38" s="4">
@@ -2202,8 +2202,8 @@
         <v>270</v>
       </c>
       <c r="K38" s="4">
-        <f t="shared" si="8"/>
-        <v>1267.5</v>
+        <f t="shared" si="9"/>
+        <v>1367.25</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2217,11 +2217,11 @@
       </c>
       <c r="C40" s="1">
         <f>INT(D40)</f>
-        <v>91092</v>
+        <v>91497</v>
       </c>
       <c r="D40" s="1">
         <f>SUM(K3:K38)</f>
-        <v>91092.6</v>
+        <v>91497.3</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">

--- a/LR3/table_1_38.xlsx
+++ b/LR3/table_1_38.xlsx
@@ -531,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -602,7 +602,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="4">
-        <f>A1*1.1</f>
+        <f>38*1.1</f>
         <v>41.800000000000004</v>
       </c>
       <c r="E3" s="4">
@@ -644,11 +644,11 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="4">
-        <f>IF((A4 / 4 &lt;= 8),$D$3, $D$3/2)</f>
+        <f t="shared" ref="D4:D38" si="0">38*1.1</f>
         <v>41.800000000000004</v>
       </c>
       <c r="E4" s="4">
-        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
+        <f t="shared" ref="E4:E38" si="1">C4*D4</f>
         <v>2905.1000000000004</v>
       </c>
       <c r="F4" s="5">
@@ -668,7 +668,7 @@
         <v>10</v>
       </c>
       <c r="J4" s="4">
-        <f t="shared" ref="J4:J38" si="1">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="2">I4*H4</f>
         <v>0</v>
       </c>
       <c r="K4" s="4">
@@ -678,22 +678,22 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f t="shared" ref="A5:A38" si="2">A4+1</f>
+        <f t="shared" ref="A5:A38" si="3">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" ref="C5:C38" si="3">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" ref="D5:D38" si="4">IF((A5 / 4 &lt;= 8),$D$3, $D$3/2)</f>
+        <f t="shared" si="0"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2884.2000000000003</v>
       </c>
       <c r="F5" s="5">
@@ -713,7 +713,7 @@
         <v>10</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="4">
@@ -723,22 +723,22 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2863.3</v>
       </c>
       <c r="F6" s="5">
@@ -758,7 +758,7 @@
         <v>10</v>
       </c>
       <c r="J6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="4">
@@ -768,22 +768,22 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2842.4</v>
       </c>
       <c r="F7" s="5">
@@ -803,7 +803,7 @@
         <v>10</v>
       </c>
       <c r="J7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7" s="4">
@@ -813,22 +813,22 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2821.5000000000005</v>
       </c>
       <c r="F8" s="5">
@@ -848,7 +848,7 @@
         <v>10</v>
       </c>
       <c r="J8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8" s="4">
@@ -858,22 +858,22 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2800.6000000000004</v>
       </c>
       <c r="F9" s="5">
@@ -893,7 +893,7 @@
         <v>10</v>
       </c>
       <c r="J9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" s="4">
@@ -903,22 +903,22 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2779.7000000000003</v>
       </c>
       <c r="F10" s="5">
@@ -938,7 +938,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10" s="4">
@@ -948,22 +948,22 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2758.8</v>
       </c>
       <c r="F11" s="5">
@@ -983,7 +983,7 @@
         <v>10</v>
       </c>
       <c r="J11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11" s="4">
@@ -993,22 +993,22 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2737.9</v>
       </c>
       <c r="F12" s="5">
@@ -1028,7 +1028,7 @@
         <v>10</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K12" s="4">
@@ -1038,22 +1038,22 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2717.0000000000005</v>
       </c>
       <c r="F13" s="5">
@@ -1073,7 +1073,7 @@
         <v>10</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K13" s="4">
@@ -1083,22 +1083,22 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E14" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2696.1000000000004</v>
       </c>
       <c r="F14" s="5">
@@ -1118,7 +1118,7 @@
         <v>10</v>
       </c>
       <c r="J14" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K14" s="4">
@@ -1128,22 +1128,22 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E15" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2675.2000000000003</v>
       </c>
       <c r="F15" s="5">
@@ -1163,7 +1163,7 @@
         <v>10</v>
       </c>
       <c r="J15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="K15" s="4">
@@ -1173,22 +1173,22 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2654.3</v>
       </c>
       <c r="F16" s="5">
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="J16" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K16" s="4">
@@ -1218,22 +1218,22 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2633.4</v>
       </c>
       <c r="F17" s="5">
@@ -1253,7 +1253,7 @@
         <v>10</v>
       </c>
       <c r="J17" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="K17" s="4">
@@ -1263,22 +1263,22 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2612.5000000000005</v>
       </c>
       <c r="F18" s="5">
@@ -1298,7 +1298,7 @@
         <v>10</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="K18" s="4">
@@ -1308,22 +1308,22 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E19" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2591.6000000000004</v>
       </c>
       <c r="F19" s="5">
@@ -1343,7 +1343,7 @@
         <v>10</v>
       </c>
       <c r="J19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="K19" s="4">
@@ -1353,22 +1353,22 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E20" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2570.7000000000003</v>
       </c>
       <c r="F20" s="5">
@@ -1388,7 +1388,7 @@
         <v>10</v>
       </c>
       <c r="J20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="K20" s="4">
@@ -1398,22 +1398,22 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E21" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2549.8000000000002</v>
       </c>
       <c r="F21" s="5">
@@ -1433,7 +1433,7 @@
         <v>10</v>
       </c>
       <c r="J21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K21" s="4">
@@ -1443,22 +1443,22 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E22" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2528.9</v>
       </c>
       <c r="F22" s="5">
@@ -1478,7 +1478,7 @@
         <v>10</v>
       </c>
       <c r="J22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="K22" s="4">
@@ -1488,22 +1488,22 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E23" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2508.0000000000005</v>
       </c>
       <c r="F23" s="5">
@@ -1523,7 +1523,7 @@
         <v>10</v>
       </c>
       <c r="J23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="K23" s="4">
@@ -1533,22 +1533,22 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2487.1000000000004</v>
       </c>
       <c r="F24" s="5">
@@ -1568,7 +1568,7 @@
         <v>10</v>
       </c>
       <c r="J24" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="K24" s="4">
@@ -1578,22 +1578,22 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E25" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2466.2000000000003</v>
       </c>
       <c r="F25" s="5">
@@ -1613,7 +1613,7 @@
         <v>10</v>
       </c>
       <c r="J25" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="K25" s="4">
@@ -1623,22 +1623,22 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2445.3000000000002</v>
       </c>
       <c r="F26" s="5">
@@ -1658,7 +1658,7 @@
         <v>10</v>
       </c>
       <c r="J26" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="K26" s="4">
@@ -1668,22 +1668,22 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="D27" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E27" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2424.4</v>
       </c>
       <c r="F27" s="5">
@@ -1703,7 +1703,7 @@
         <v>10</v>
       </c>
       <c r="J27" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="K27" s="4">
@@ -1713,22 +1713,22 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E28" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2403.5000000000005</v>
       </c>
       <c r="F28" s="5">
@@ -1748,7 +1748,7 @@
         <v>10</v>
       </c>
       <c r="J28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K28" s="4">
@@ -1758,22 +1758,22 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="D29" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E29" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2382.6000000000004</v>
       </c>
       <c r="F29" s="5">
@@ -1793,7 +1793,7 @@
         <v>10</v>
       </c>
       <c r="J29" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="K29" s="4">
@@ -1803,22 +1803,22 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E30" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2361.7000000000003</v>
       </c>
       <c r="F30" s="5">
@@ -1838,7 +1838,7 @@
         <v>10</v>
       </c>
       <c r="J30" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="K30" s="4">
@@ -1848,22 +1848,22 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="D31" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E31" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2340.8000000000002</v>
       </c>
       <c r="F31" s="5">
@@ -1883,7 +1883,7 @@
         <v>10</v>
       </c>
       <c r="J31" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="K31" s="4">
@@ -1893,22 +1893,22 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E32" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2319.9</v>
       </c>
       <c r="F32" s="5">
@@ -1928,7 +1928,7 @@
         <v>10</v>
       </c>
       <c r="J32" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="K32" s="4">
@@ -1938,22 +1938,22 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="D33" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E33" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2299.0000000000005</v>
       </c>
       <c r="F33" s="5">
@@ -1973,7 +1973,7 @@
         <v>10</v>
       </c>
       <c r="J33" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="K33" s="4">
@@ -1983,22 +1983,22 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E34" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2278.1000000000004</v>
       </c>
       <c r="F34" s="5">
@@ -2018,7 +2018,7 @@
         <v>10</v>
       </c>
       <c r="J34" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="K34" s="4">
@@ -2028,23 +2028,23 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="D35" s="4">
-        <f t="shared" si="4"/>
-        <v>20.900000000000002</v>
+        <f t="shared" si="0"/>
+        <v>41.800000000000004</v>
       </c>
       <c r="E35" s="4">
-        <f t="shared" si="0"/>
-        <v>1128.6000000000001</v>
+        <f t="shared" si="1"/>
+        <v>2257.2000000000003</v>
       </c>
       <c r="F35" s="5">
         <f t="shared" si="5"/>
@@ -2063,33 +2063,33 @@
         <v>10</v>
       </c>
       <c r="J35" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="K35" s="4">
         <f t="shared" si="9"/>
-        <v>1368.6000000000001</v>
+        <v>2497.2000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="4">
-        <f t="shared" si="4"/>
-        <v>20.900000000000002</v>
+        <f t="shared" si="0"/>
+        <v>41.800000000000004</v>
       </c>
       <c r="E36" s="4">
-        <f t="shared" si="0"/>
-        <v>1118.1500000000001</v>
+        <f t="shared" si="1"/>
+        <v>2236.3000000000002</v>
       </c>
       <c r="F36" s="5">
         <f t="shared" si="5"/>
@@ -2108,33 +2108,33 @@
         <v>10</v>
       </c>
       <c r="J36" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="K36" s="4">
         <f t="shared" si="9"/>
-        <v>1368.15</v>
+        <v>2486.3000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="D37" s="4">
-        <f t="shared" si="4"/>
-        <v>20.900000000000002</v>
+        <f t="shared" si="0"/>
+        <v>41.800000000000004</v>
       </c>
       <c r="E37" s="4">
-        <f t="shared" si="0"/>
-        <v>1107.7</v>
+        <f t="shared" si="1"/>
+        <v>2215.4</v>
       </c>
       <c r="F37" s="5">
         <f t="shared" si="5"/>
@@ -2153,33 +2153,33 @@
         <v>10</v>
       </c>
       <c r="J37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="K37" s="4">
         <f t="shared" si="9"/>
-        <v>1367.7</v>
+        <v>2475.4</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="4">
-        <f t="shared" si="4"/>
-        <v>20.900000000000002</v>
+        <f t="shared" si="0"/>
+        <v>41.800000000000004</v>
       </c>
       <c r="E38" s="4">
-        <f t="shared" si="0"/>
-        <v>1097.25</v>
+        <f t="shared" si="1"/>
+        <v>2194.5</v>
       </c>
       <c r="F38" s="5">
         <f t="shared" si="5"/>
@@ -2198,12 +2198,12 @@
         <v>10</v>
       </c>
       <c r="J38" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="K38" s="4">
         <f t="shared" si="9"/>
-        <v>1367.25</v>
+        <v>2464.5</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2217,11 +2217,11 @@
       </c>
       <c r="C40" s="1">
         <f>INT(D40)</f>
-        <v>91497</v>
+        <v>95949</v>
       </c>
       <c r="D40" s="1">
         <f>SUM(K3:K38)</f>
-        <v>91497.3</v>
+        <v>95949</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">

--- a/LR3/table_1_38.xlsx
+++ b/LR3/table_1_38.xlsx
@@ -74,9 +74,6 @@
     <t>Мифтахов</t>
   </si>
   <si>
-    <t>Ма́тижева</t>
-  </si>
-  <si>
     <t>Лучин</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>Гагаркин</t>
   </si>
   <si>
-    <t>Башкиро́ва</t>
-  </si>
-  <si>
     <t>Байрамшин</t>
   </si>
   <si>
@@ -186,6 +180,12 @@
   </si>
   <si>
     <t>Срок оплаты, день</t>
+  </si>
+  <si>
+    <t>Башкирова</t>
+  </si>
+  <si>
+    <t>Матижева</t>
   </si>
 </sst>
 </file>
@@ -546,7 +546,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,7 +584,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -593,25 +593,25 @@
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -660,7 +660,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -705,7 +705,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
@@ -750,7 +750,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="6"/>
@@ -795,7 +795,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="6"/>
@@ -840,7 +840,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="6"/>
@@ -885,7 +885,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="6"/>
@@ -930,7 +930,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="6"/>
@@ -975,7 +975,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="6"/>
@@ -1020,7 +1020,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="6"/>
@@ -1515,7 +1515,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="6"/>
@@ -1560,7 +1560,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="6"/>
@@ -1605,7 +1605,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="6"/>
@@ -1650,7 +1650,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="6"/>
@@ -1695,7 +1695,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="6"/>
@@ -1740,7 +1740,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="6"/>
@@ -1785,7 +1785,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="6"/>
@@ -1830,7 +1830,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="6"/>
@@ -1875,7 +1875,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="6"/>
@@ -1920,7 +1920,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="6"/>
@@ -1965,7 +1965,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="6"/>
@@ -2010,7 +2010,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="6"/>
@@ -2055,7 +2055,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="6"/>
@@ -2100,7 +2100,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="6"/>
@@ -2145,7 +2145,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="6"/>
@@ -2190,7 +2190,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="6"/>
@@ -2244,7 +2244,7 @@
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C40" s="6">
         <f>SUM(K3:K38)</f>
@@ -2262,7 +2262,7 @@
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C41" s="7">
         <f>AVERAGE(C3:C38)</f>
@@ -2280,7 +2280,7 @@
     <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2298,7 +2298,7 @@
     <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C43" s="6">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_38.xlsx
+++ b/LR3/table_1_38.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="10200" yWindow="1470" windowWidth="12750" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,6 +74,9 @@
     <t>Мифтахов</t>
   </si>
   <si>
+    <t>Ма́тижева</t>
+  </si>
+  <si>
     <t>Лучин</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
     <t>Гагаркин</t>
   </si>
   <si>
+    <t>Башкиро́ва</t>
+  </si>
+  <si>
     <t>Байрамшин</t>
   </si>
   <si>
@@ -180,12 +186,6 @@
   </si>
   <si>
     <t>Срок оплаты, день</t>
-  </si>
-  <si>
-    <t>Башкирова</t>
-  </si>
-  <si>
-    <t>Матижева</t>
   </si>
 </sst>
 </file>
@@ -546,7 +546,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,7 +584,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -593,25 +593,25 @@
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -660,18 +660,18 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D38" si="0">38*1.1</f>
+        <f>IF((A4 / 4 &lt;= 8),$D$3, $D$3/2)</f>
         <v>41.800000000000004</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E38" si="1">D4*C4</f>
+        <f t="shared" ref="E4:E38" si="0">D4*C4</f>
         <v>2905.1000000000004</v>
       </c>
       <c r="F4" s="10">
@@ -683,7 +683,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="2">IF(G4&lt;=F4, 0, G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="1">IF(G4&lt;=F4, 0, G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -691,32 +691,32 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J11" si="3">I4*H4</f>
+        <f t="shared" ref="J4:J11" si="2">I4*H4</f>
         <v>0</v>
       </c>
       <c r="K4" s="7">
-        <f t="shared" ref="K4:K38" si="4">SUM(E4,J4)</f>
+        <f t="shared" ref="K4:K38" si="3">SUM(E4,J4)</f>
         <v>2905.1000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <f t="shared" ref="A5:A38" si="5">A4+1</f>
+        <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:D38" si="6">IF((A5 / 4 &lt;= 8),$D$3, $D$3/2)</f>
         <v>41.800000000000004</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2884.2000000000003</v>
       </c>
       <c r="F5" s="10">
@@ -728,40 +728,40 @@
         <v>44807</v>
       </c>
       <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" ref="I5:I37" si="9">$I$3</f>
+        <v>10</v>
+      </c>
+      <c r="J5" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I5" s="1">
-        <f t="shared" ref="I5:I37" si="9">$I$3</f>
-        <v>10</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="K5" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2884.2000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2863.3</v>
       </c>
       <c r="F6" s="10">
@@ -773,40 +773,40 @@
         <v>44808</v>
       </c>
       <c r="H6" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I6" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J6" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="K6" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2863.3</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2842.4</v>
       </c>
       <c r="F7" s="10">
@@ -818,40 +818,40 @@
         <v>44809</v>
       </c>
       <c r="H7" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I7" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J7" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="K7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2842.4</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2821.5000000000005</v>
       </c>
       <c r="F8" s="10">
@@ -863,40 +863,40 @@
         <v>44810</v>
       </c>
       <c r="H8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I8" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="K8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2821.5000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2800.6000000000004</v>
       </c>
       <c r="F9" s="10">
@@ -908,40 +908,40 @@
         <v>44811</v>
       </c>
       <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I9" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J9" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="K9" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2800.6000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2779.7000000000003</v>
       </c>
       <c r="F10" s="10">
@@ -953,40 +953,40 @@
         <v>44812</v>
       </c>
       <c r="H10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J10" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I10" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J10" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="K10" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2779.7000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2758.8</v>
       </c>
       <c r="F11" s="10">
@@ -998,40 +998,40 @@
         <v>44813</v>
       </c>
       <c r="H11" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J11" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I11" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J11" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="K11" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2758.8</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2737.9</v>
       </c>
       <c r="F12" s="10">
@@ -1043,7 +1043,7 @@
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
@@ -1055,28 +1055,28 @@
         <v>10</v>
       </c>
       <c r="K12" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2747.9</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2717.0000000000005</v>
       </c>
       <c r="F13" s="10">
@@ -1088,7 +1088,7 @@
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
@@ -1100,28 +1100,28 @@
         <v>20</v>
       </c>
       <c r="K13" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2737.0000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2696.1000000000004</v>
       </c>
       <c r="F14" s="10">
@@ -1133,7 +1133,7 @@
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
@@ -1145,28 +1145,28 @@
         <v>30</v>
       </c>
       <c r="K14" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2726.1000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2675.2000000000003</v>
       </c>
       <c r="F15" s="10">
@@ -1178,7 +1178,7 @@
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
@@ -1190,28 +1190,28 @@
         <v>40</v>
       </c>
       <c r="K15" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2715.2000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2654.3</v>
       </c>
       <c r="F16" s="10">
@@ -1223,7 +1223,7 @@
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
@@ -1235,28 +1235,28 @@
         <v>50</v>
       </c>
       <c r="K16" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2704.3</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2633.4</v>
       </c>
       <c r="F17" s="10">
@@ -1268,7 +1268,7 @@
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
@@ -1280,28 +1280,28 @@
         <v>60</v>
       </c>
       <c r="K17" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2693.4</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2612.5000000000005</v>
       </c>
       <c r="F18" s="10">
@@ -1313,7 +1313,7 @@
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
@@ -1325,28 +1325,28 @@
         <v>70</v>
       </c>
       <c r="K18" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2682.5000000000005</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2591.6000000000004</v>
       </c>
       <c r="F19" s="10">
@@ -1358,7 +1358,7 @@
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
@@ -1370,28 +1370,28 @@
         <v>80</v>
       </c>
       <c r="K19" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2671.6000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2570.7000000000003</v>
       </c>
       <c r="F20" s="10">
@@ -1403,7 +1403,7 @@
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
@@ -1415,28 +1415,28 @@
         <v>90</v>
       </c>
       <c r="K20" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2660.7000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2549.8000000000002</v>
       </c>
       <c r="F21" s="10">
@@ -1448,7 +1448,7 @@
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
@@ -1460,28 +1460,28 @@
         <v>100</v>
       </c>
       <c r="K21" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2649.8</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2528.9</v>
       </c>
       <c r="F22" s="10">
@@ -1493,7 +1493,7 @@
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
@@ -1505,28 +1505,28 @@
         <v>110</v>
       </c>
       <c r="K22" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2638.9</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2508.0000000000005</v>
       </c>
       <c r="F23" s="10">
@@ -1538,7 +1538,7 @@
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
@@ -1550,28 +1550,28 @@
         <v>120</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2628.0000000000005</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2487.1000000000004</v>
       </c>
       <c r="F24" s="10">
@@ -1583,7 +1583,7 @@
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
@@ -1595,28 +1595,28 @@
         <v>130</v>
       </c>
       <c r="K24" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2617.1000000000004</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2466.2000000000003</v>
       </c>
       <c r="F25" s="10">
@@ -1628,7 +1628,7 @@
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
@@ -1640,28 +1640,28 @@
         <v>140</v>
       </c>
       <c r="K25" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2606.2000000000003</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2445.3000000000002</v>
       </c>
       <c r="F26" s="10">
@@ -1673,7 +1673,7 @@
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
@@ -1685,28 +1685,28 @@
         <v>150</v>
       </c>
       <c r="K26" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2595.3000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2424.4</v>
       </c>
       <c r="F27" s="10">
@@ -1718,7 +1718,7 @@
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
@@ -1730,28 +1730,28 @@
         <v>160</v>
       </c>
       <c r="K27" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2584.4</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2403.5000000000005</v>
       </c>
       <c r="F28" s="10">
@@ -1763,7 +1763,7 @@
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
@@ -1775,28 +1775,28 @@
         <v>170</v>
       </c>
       <c r="K28" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2573.5000000000005</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2382.6000000000004</v>
       </c>
       <c r="F29" s="10">
@@ -1808,7 +1808,7 @@
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
@@ -1820,28 +1820,28 @@
         <v>180</v>
       </c>
       <c r="K29" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2562.6000000000004</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2361.7000000000003</v>
       </c>
       <c r="F30" s="10">
@@ -1853,7 +1853,7 @@
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
@@ -1865,28 +1865,28 @@
         <v>190</v>
       </c>
       <c r="K30" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2551.7000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2340.8000000000002</v>
       </c>
       <c r="F31" s="10">
@@ -1898,7 +1898,7 @@
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
@@ -1910,28 +1910,28 @@
         <v>200</v>
       </c>
       <c r="K31" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2540.8000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2319.9</v>
       </c>
       <c r="F32" s="10">
@@ -1943,7 +1943,7 @@
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
@@ -1955,28 +1955,28 @@
         <v>210</v>
       </c>
       <c r="K32" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2529.9</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2299.0000000000005</v>
       </c>
       <c r="F33" s="10">
@@ -1988,7 +1988,7 @@
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
@@ -2000,28 +2000,28 @@
         <v>220</v>
       </c>
       <c r="K33" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2519.0000000000005</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>41.800000000000004</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2278.1000000000004</v>
       </c>
       <c r="F34" s="10">
@@ -2033,7 +2033,7 @@
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
@@ -2045,29 +2045,29 @@
         <v>230</v>
       </c>
       <c r="K34" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2508.1000000000004</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="0"/>
-        <v>41.800000000000004</v>
+        <f t="shared" si="6"/>
+        <v>20.900000000000002</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="1"/>
-        <v>2257.2000000000003</v>
+        <f t="shared" si="0"/>
+        <v>1128.6000000000001</v>
       </c>
       <c r="F35" s="10">
         <f t="shared" si="7"/>
@@ -2078,7 +2078,7 @@
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
@@ -2090,29 +2090,29 @@
         <v>240</v>
       </c>
       <c r="K35" s="8">
-        <f t="shared" si="4"/>
-        <v>2497.2000000000003</v>
+        <f t="shared" si="3"/>
+        <v>1368.6000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="0"/>
-        <v>41.800000000000004</v>
+        <f t="shared" si="6"/>
+        <v>20.900000000000002</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="1"/>
-        <v>2236.3000000000002</v>
+        <f t="shared" si="0"/>
+        <v>1118.1500000000001</v>
       </c>
       <c r="F36" s="10">
         <f t="shared" si="7"/>
@@ -2123,7 +2123,7 @@
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
@@ -2135,29 +2135,29 @@
         <v>250</v>
       </c>
       <c r="K36" s="9">
-        <f t="shared" si="4"/>
-        <v>2486.3000000000002</v>
+        <f t="shared" si="3"/>
+        <v>1368.15</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="0"/>
-        <v>41.800000000000004</v>
+        <f t="shared" si="6"/>
+        <v>20.900000000000002</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="1"/>
-        <v>2215.4</v>
+        <f t="shared" si="0"/>
+        <v>1107.7</v>
       </c>
       <c r="F37" s="10">
         <f t="shared" si="7"/>
@@ -2168,7 +2168,7 @@
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
@@ -2180,29 +2180,29 @@
         <v>260</v>
       </c>
       <c r="K37" s="7">
-        <f t="shared" si="4"/>
-        <v>2475.4</v>
+        <f t="shared" si="3"/>
+        <v>1367.7</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="0"/>
-        <v>41.800000000000004</v>
+        <f t="shared" si="6"/>
+        <v>20.900000000000002</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="1"/>
-        <v>2194.5</v>
+        <f t="shared" si="0"/>
+        <v>1097.25</v>
       </c>
       <c r="F38" s="10">
         <f>$F$3</f>
@@ -2213,7 +2213,7 @@
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
@@ -2224,8 +2224,8 @@
         <v>270</v>
       </c>
       <c r="K38" s="9">
-        <f t="shared" si="4"/>
-        <v>2464.5</v>
+        <f t="shared" si="3"/>
+        <v>1367.25</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2244,11 +2244,11 @@
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C40" s="6">
         <f>SUM(K3:K38)</f>
-        <v>95949</v>
+        <v>91497.3</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2262,7 +2262,7 @@
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C41" s="7">
         <f>AVERAGE(C3:C38)</f>
@@ -2280,7 +2280,7 @@
     <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2298,7 +2298,7 @@
     <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C43" s="6">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_38.xlsx
+++ b/LR3/table_1_38.xlsx
@@ -74,9 +74,6 @@
     <t>Мифтахов</t>
   </si>
   <si>
-    <t>Ма́тижева</t>
-  </si>
-  <si>
     <t>Лучин</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>Гагаркин</t>
   </si>
   <si>
-    <t>Башкиро́ва</t>
-  </si>
-  <si>
     <t>Байрамшин</t>
   </si>
   <si>
@@ -182,10 +176,16 @@
     <t>Максимальная сумма, руб.</t>
   </si>
   <si>
-    <t>Дата оплаты, день</t>
-  </si>
-  <si>
-    <t>Срок оплаты, день</t>
+    <t>Башкирова</t>
+  </si>
+  <si>
+    <t>Матижева</t>
+  </si>
+  <si>
+    <t>Дата оплаты</t>
+  </si>
+  <si>
+    <t>Срок оплаты</t>
   </si>
 </sst>
 </file>
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,7 +584,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -593,25 +593,25 @@
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -660,7 +660,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -705,7 +705,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
@@ -750,7 +750,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="5"/>
@@ -795,7 +795,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="5"/>
@@ -840,7 +840,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="5"/>
@@ -885,7 +885,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="5"/>
@@ -930,7 +930,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="5"/>
@@ -975,7 +975,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="5"/>
@@ -1020,7 +1020,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="5"/>
@@ -1515,7 +1515,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="5"/>
@@ -1560,7 +1560,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="5"/>
@@ -1605,7 +1605,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="5"/>
@@ -1650,7 +1650,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="5"/>
@@ -1695,7 +1695,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="5"/>
@@ -1740,7 +1740,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -1785,7 +1785,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -1830,7 +1830,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -1875,7 +1875,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -1920,7 +1920,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -1965,7 +1965,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -2010,7 +2010,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -2055,7 +2055,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -2100,7 +2100,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -2145,7 +2145,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2190,7 +2190,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
@@ -2244,7 +2244,7 @@
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C40" s="6">
         <f>SUM(K3:K38)</f>
@@ -2262,7 +2262,7 @@
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C41" s="7">
         <f>AVERAGE(C3:C38)</f>
@@ -2280,7 +2280,7 @@
     <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2298,7 +2298,7 @@
     <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C43" s="6">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_38.xlsx
+++ b/LR3/table_1_38.xlsx
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,11 +625,11 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <f>38*1.1</f>
+        <f>A1*1.1</f>
         <v>41.800000000000004</v>
       </c>
       <c r="E3" s="1">
-        <f>D3*C3</f>
+        <f>C3*D3</f>
         <v>2926.0000000000005</v>
       </c>
       <c r="F3" s="10">
@@ -671,7 +671,7 @@
         <v>41.800000000000004</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E38" si="0">D4*C4</f>
+        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>2905.1000000000004</v>
       </c>
       <c r="F4" s="10">
@@ -1747,7 +1747,7 @@
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="6"/>
+        <f>IF((A28 / 4 &lt;= 8),$D$3, $D$3/2)</f>
         <v>41.800000000000004</v>
       </c>
       <c r="E28" s="1">

--- a/LR3/table_1_38.xlsx
+++ b/LR3/table_1_38.xlsx
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,7 +667,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f>IF((A4 / 4 &lt;= 8),$D$3, $D$3/2)</f>
+        <f>A1*1.1</f>
         <v>41.800000000000004</v>
       </c>
       <c r="E4" s="1">
@@ -2062,7 +2062,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="6"/>
+        <f>A1*0.55</f>
         <v>20.900000000000002</v>
       </c>
       <c r="E35" s="1">

--- a/LR3/table_1_38.xlsx
+++ b/LR3/table_1_38.xlsx
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/LR3/table_1_38.xlsx
+++ b/LR3/table_1_38.xlsx
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35:D38"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,7 +646,7 @@
         <v>10</v>
       </c>
       <c r="J3" s="1">
-        <f>I3*H3</f>
+        <f>H3*I3</f>
         <v>0</v>
       </c>
       <c r="K3" s="6">
@@ -687,11 +687,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J11" si="2">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="2">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="7">
@@ -712,7 +711,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D38" si="6">IF((A5 / 4 &lt;= 8),$D$3, $D$3/2)</f>
+        <f>A1*1.1</f>
         <v>41.800000000000004</v>
       </c>
       <c r="E5" s="1">
@@ -720,11 +719,11 @@
         <v>2884.2000000000003</v>
       </c>
       <c r="F5" s="10">
-        <f t="shared" ref="F5:F37" si="7">$F$3</f>
+        <f t="shared" ref="F5:F37" si="6">$F$3</f>
         <v>44813</v>
       </c>
       <c r="G5" s="10">
-        <f t="shared" ref="G5:G38" si="8">G4+1</f>
+        <f t="shared" ref="G5:G38" si="7">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
@@ -732,7 +731,6 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I37" si="9">$I$3</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
@@ -757,7 +755,7 @@
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="6"/>
+        <f>A1*1.1</f>
         <v>41.800000000000004</v>
       </c>
       <c r="E6" s="1">
@@ -765,11 +763,11 @@
         <v>2863.3</v>
       </c>
       <c r="F6" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G6" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
@@ -777,7 +775,6 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
@@ -802,7 +799,7 @@
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="6"/>
+        <f>A1*1.1</f>
         <v>41.800000000000004</v>
       </c>
       <c r="E7" s="1">
@@ -810,11 +807,11 @@
         <v>2842.4</v>
       </c>
       <c r="F7" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G7" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
@@ -822,7 +819,6 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
@@ -847,7 +843,7 @@
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="6"/>
+        <f>A1*1.1</f>
         <v>41.800000000000004</v>
       </c>
       <c r="E8" s="1">
@@ -855,11 +851,11 @@
         <v>2821.5000000000005</v>
       </c>
       <c r="F8" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G8" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
@@ -867,7 +863,6 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
@@ -892,7 +887,7 @@
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="6"/>
+        <f>A1*1.1</f>
         <v>41.800000000000004</v>
       </c>
       <c r="E9" s="1">
@@ -900,11 +895,11 @@
         <v>2800.6000000000004</v>
       </c>
       <c r="F9" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G9" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
@@ -912,7 +907,6 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
@@ -937,7 +931,7 @@
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="6"/>
+        <f>A1*1.1</f>
         <v>41.800000000000004</v>
       </c>
       <c r="E10" s="1">
@@ -945,11 +939,11 @@
         <v>2779.7000000000003</v>
       </c>
       <c r="F10" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G10" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
@@ -957,7 +951,6 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
@@ -982,7 +975,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="6"/>
+        <f>A1*1.1</f>
         <v>41.800000000000004</v>
       </c>
       <c r="E11" s="1">
@@ -990,11 +983,11 @@
         <v>2758.8</v>
       </c>
       <c r="F11" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G11" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
@@ -1002,7 +995,6 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
@@ -1027,7 +1019,7 @@
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="6"/>
+        <f>A1*1.1</f>
         <v>41.800000000000004</v>
       </c>
       <c r="E12" s="1">
@@ -1035,11 +1027,11 @@
         <v>2737.9</v>
       </c>
       <c r="F12" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G12" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
@@ -1047,11 +1039,10 @@
         <v>1</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f>I12*H12</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K12" s="7">
@@ -1072,7 +1063,7 @@
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="6"/>
+        <f>A1*1.1</f>
         <v>41.800000000000004</v>
       </c>
       <c r="E13" s="1">
@@ -1080,11 +1071,11 @@
         <v>2717.0000000000005</v>
       </c>
       <c r="F13" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G13" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
@@ -1092,11 +1083,10 @@
         <v>2</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f>I13*H13</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K13" s="8">
@@ -1117,7 +1107,7 @@
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="6"/>
+        <f>A1*1.1</f>
         <v>41.800000000000004</v>
       </c>
       <c r="E14" s="1">
@@ -1125,11 +1115,11 @@
         <v>2696.1000000000004</v>
       </c>
       <c r="F14" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G14" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
@@ -1137,11 +1127,10 @@
         <v>3</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" ref="J14:J38" si="10">I14*H14</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K14" s="7">
@@ -1162,7 +1151,7 @@
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="6"/>
+        <f>A1*1.1</f>
         <v>41.800000000000004</v>
       </c>
       <c r="E15" s="1">
@@ -1170,11 +1159,11 @@
         <v>2675.2000000000003</v>
       </c>
       <c r="F15" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
@@ -1182,11 +1171,10 @@
         <v>4</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="K15" s="8">
@@ -1207,7 +1195,7 @@
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="6"/>
+        <f>A1*1.1</f>
         <v>41.800000000000004</v>
       </c>
       <c r="E16" s="1">
@@ -1215,11 +1203,11 @@
         <v>2654.3</v>
       </c>
       <c r="F16" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G16" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
@@ -1227,11 +1215,10 @@
         <v>5</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K16" s="7">
@@ -1252,7 +1239,7 @@
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="6"/>
+        <f>A1*1.1</f>
         <v>41.800000000000004</v>
       </c>
       <c r="E17" s="1">
@@ -1260,11 +1247,11 @@
         <v>2633.4</v>
       </c>
       <c r="F17" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G17" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
@@ -1272,11 +1259,10 @@
         <v>6</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="K17" s="8">
@@ -1297,7 +1283,7 @@
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="6"/>
+        <f>A1*1.1</f>
         <v>41.800000000000004</v>
       </c>
       <c r="E18" s="1">
@@ -1305,11 +1291,11 @@
         <v>2612.5000000000005</v>
       </c>
       <c r="F18" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G18" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
@@ -1317,11 +1303,10 @@
         <v>7</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="K18" s="7">
@@ -1342,7 +1327,7 @@
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="6"/>
+        <f>A1*1.1</f>
         <v>41.800000000000004</v>
       </c>
       <c r="E19" s="1">
@@ -1350,11 +1335,11 @@
         <v>2591.6000000000004</v>
       </c>
       <c r="F19" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G19" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
@@ -1362,11 +1347,10 @@
         <v>8</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="K19" s="8">
@@ -1387,7 +1371,7 @@
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="6"/>
+        <f>A1*1.1</f>
         <v>41.800000000000004</v>
       </c>
       <c r="E20" s="1">
@@ -1395,11 +1379,11 @@
         <v>2570.7000000000003</v>
       </c>
       <c r="F20" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G20" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
@@ -1407,11 +1391,10 @@
         <v>9</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="K20" s="7">
@@ -1432,7 +1415,7 @@
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="6"/>
+        <f>A1*1.1</f>
         <v>41.800000000000004</v>
       </c>
       <c r="E21" s="1">
@@ -1440,11 +1423,11 @@
         <v>2549.8000000000002</v>
       </c>
       <c r="F21" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G21" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
@@ -1452,11 +1435,10 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K21" s="8">
@@ -1477,7 +1459,7 @@
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="6"/>
+        <f>A1*1.1</f>
         <v>41.800000000000004</v>
       </c>
       <c r="E22" s="1">
@@ -1485,11 +1467,11 @@
         <v>2528.9</v>
       </c>
       <c r="F22" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G22" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
@@ -1497,11 +1479,10 @@
         <v>11</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="K22" s="7">
@@ -1522,7 +1503,7 @@
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="6"/>
+        <f>A1*1.1</f>
         <v>41.800000000000004</v>
       </c>
       <c r="E23" s="1">
@@ -1530,11 +1511,11 @@
         <v>2508.0000000000005</v>
       </c>
       <c r="F23" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G23" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
@@ -1542,11 +1523,10 @@
         <v>12</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="K23" s="6">
@@ -1567,7 +1547,7 @@
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="6"/>
+        <f>A1*1.1</f>
         <v>41.800000000000004</v>
       </c>
       <c r="E24" s="1">
@@ -1575,11 +1555,11 @@
         <v>2487.1000000000004</v>
       </c>
       <c r="F24" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G24" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
@@ -1587,11 +1567,10 @@
         <v>13</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="K24" s="7">
@@ -1612,7 +1591,7 @@
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="6"/>
+        <f>A1*1.1</f>
         <v>41.800000000000004</v>
       </c>
       <c r="E25" s="1">
@@ -1620,11 +1599,11 @@
         <v>2466.2000000000003</v>
       </c>
       <c r="F25" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G25" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
@@ -1632,11 +1611,10 @@
         <v>14</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="K25" s="8">
@@ -1657,7 +1635,7 @@
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="6"/>
+        <f>A1*1.1</f>
         <v>41.800000000000004</v>
       </c>
       <c r="E26" s="1">
@@ -1665,11 +1643,11 @@
         <v>2445.3000000000002</v>
       </c>
       <c r="F26" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G26" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
@@ -1677,11 +1655,10 @@
         <v>15</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="K26" s="7">
@@ -1702,7 +1679,7 @@
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="6"/>
+        <f>A1*1.1</f>
         <v>41.800000000000004</v>
       </c>
       <c r="E27" s="1">
@@ -1710,11 +1687,11 @@
         <v>2424.4</v>
       </c>
       <c r="F27" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G27" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
@@ -1722,11 +1699,10 @@
         <v>16</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="K27" s="8">
@@ -1747,7 +1723,7 @@
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f>IF((A28 / 4 &lt;= 8),$D$3, $D$3/2)</f>
+        <f>A1*1.1</f>
         <v>41.800000000000004</v>
       </c>
       <c r="E28" s="1">
@@ -1755,11 +1731,11 @@
         <v>2403.5000000000005</v>
       </c>
       <c r="F28" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G28" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
@@ -1767,11 +1743,10 @@
         <v>17</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K28" s="7">
@@ -1792,7 +1767,7 @@
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="6"/>
+        <f>A1*1.1</f>
         <v>41.800000000000004</v>
       </c>
       <c r="E29" s="1">
@@ -1800,11 +1775,11 @@
         <v>2382.6000000000004</v>
       </c>
       <c r="F29" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G29" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
@@ -1812,11 +1787,10 @@
         <v>18</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="K29" s="8">
@@ -1837,7 +1811,7 @@
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="6"/>
+        <f>A1*1.1</f>
         <v>41.800000000000004</v>
       </c>
       <c r="E30" s="1">
@@ -1845,11 +1819,11 @@
         <v>2361.7000000000003</v>
       </c>
       <c r="F30" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G30" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
@@ -1857,11 +1831,10 @@
         <v>19</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="K30" s="7">
@@ -1882,7 +1855,7 @@
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="6"/>
+        <f>A1*1.1</f>
         <v>41.800000000000004</v>
       </c>
       <c r="E31" s="1">
@@ -1890,11 +1863,11 @@
         <v>2340.8000000000002</v>
       </c>
       <c r="F31" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G31" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
@@ -1902,11 +1875,10 @@
         <v>20</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="K31" s="8">
@@ -1927,7 +1899,7 @@
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="6"/>
+        <f>A1*1.1</f>
         <v>41.800000000000004</v>
       </c>
       <c r="E32" s="1">
@@ -1935,11 +1907,11 @@
         <v>2319.9</v>
       </c>
       <c r="F32" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G32" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
@@ -1947,11 +1919,10 @@
         <v>21</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="K32" s="7">
@@ -1972,7 +1943,7 @@
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="6"/>
+        <f>A1*1.1</f>
         <v>41.800000000000004</v>
       </c>
       <c r="E33" s="1">
@@ -1980,11 +1951,11 @@
         <v>2299.0000000000005</v>
       </c>
       <c r="F33" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G33" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
@@ -1992,11 +1963,10 @@
         <v>22</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="K33" s="8">
@@ -2017,7 +1987,7 @@
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="6"/>
+        <f>A1*1.1</f>
         <v>41.800000000000004</v>
       </c>
       <c r="E34" s="1">
@@ -2025,11 +1995,11 @@
         <v>2278.1000000000004</v>
       </c>
       <c r="F34" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G34" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
@@ -2037,11 +2007,10 @@
         <v>23</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="K34" s="7">
@@ -2070,11 +2039,11 @@
         <v>1128.6000000000001</v>
       </c>
       <c r="F35" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G35" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
@@ -2082,11 +2051,10 @@
         <v>24</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="K35" s="8">
@@ -2107,7 +2075,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="6"/>
+        <f>A1*0.55</f>
         <v>20.900000000000002</v>
       </c>
       <c r="E36" s="1">
@@ -2115,11 +2083,11 @@
         <v>1118.1500000000001</v>
       </c>
       <c r="F36" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G36" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
@@ -2127,11 +2095,10 @@
         <v>25</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="K36" s="9">
@@ -2152,7 +2119,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="6"/>
+        <f>A1*0.55</f>
         <v>20.900000000000002</v>
       </c>
       <c r="E37" s="1">
@@ -2160,11 +2127,11 @@
         <v>1107.7</v>
       </c>
       <c r="F37" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G37" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
@@ -2172,11 +2139,10 @@
         <v>26</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="K37" s="7">
@@ -2197,7 +2163,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="6"/>
+        <f>A1*0.55</f>
         <v>20.900000000000002</v>
       </c>
       <c r="E38" s="1">
@@ -2209,7 +2175,7 @@
         <v>44813</v>
       </c>
       <c r="G38" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44840</v>
       </c>
       <c r="H38" s="1">
@@ -2220,7 +2186,7 @@
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="K38" s="9">

--- a/LR3/table_1_38.xlsx
+++ b/LR3/table_1_38.xlsx
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J38"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,6 +687,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J4" s="1">
@@ -731,6 +732,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
+        <f t="shared" ref="I5:I38" si="8">$I$3</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
@@ -775,6 +777,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
@@ -819,6 +822,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
@@ -863,6 +867,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
@@ -907,6 +912,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
@@ -951,6 +957,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
@@ -995,6 +1002,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
@@ -1039,6 +1047,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
@@ -1083,6 +1092,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
@@ -1127,6 +1137,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
@@ -1171,6 +1182,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
@@ -1215,6 +1227,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
@@ -1259,6 +1272,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
@@ -1303,6 +1317,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
@@ -1347,6 +1362,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
@@ -1391,6 +1407,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
@@ -1435,6 +1452,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
@@ -1479,6 +1497,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
@@ -1523,6 +1542,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
@@ -1567,6 +1587,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
@@ -1611,6 +1632,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
@@ -1655,6 +1677,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
@@ -1699,6 +1722,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
@@ -1743,6 +1767,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
@@ -1787,6 +1812,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
@@ -1831,6 +1857,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
@@ -1875,6 +1902,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
@@ -1919,6 +1947,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
@@ -1963,6 +1992,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
@@ -2007,6 +2037,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
@@ -2051,6 +2082,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
@@ -2095,6 +2127,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
@@ -2139,6 +2172,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
@@ -2183,6 +2217,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">

--- a/LR3/table_1_38.xlsx
+++ b/LR3/table_1_38.xlsx
@@ -192,10 +192,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -245,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -260,8 +256,6 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -545,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,10 +626,10 @@
         <f>C3*D3</f>
         <v>2926.0000000000005</v>
       </c>
-      <c r="F3" s="10">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="10">
+      <c r="F3" s="8">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="8">
         <v>44805</v>
       </c>
       <c r="H3" s="1">
@@ -650,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="6">
-        <f>SUM(E3,J3)</f>
+        <f>E3+H3</f>
         <v>2926.0000000000005</v>
       </c>
     </row>
@@ -674,11 +668,11 @@
         <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>2905.1000000000004</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="8">
         <f>$F$3</f>
         <v>44813</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="8">
         <f>G3+1</f>
         <v>44806</v>
       </c>
@@ -694,8 +688,8 @@
         <f t="shared" ref="J4:J38" si="2">H4*I4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="7">
-        <f t="shared" ref="K4:K38" si="3">SUM(E4,J4)</f>
+      <c r="K4" s="6">
+        <f t="shared" ref="K4:K38" si="3">E4+H4</f>
         <v>2905.1000000000004</v>
       </c>
     </row>
@@ -719,11 +713,11 @@
         <f t="shared" si="0"/>
         <v>2884.2000000000003</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="8">
         <f t="shared" ref="F5:F37" si="6">$F$3</f>
         <v>44813</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="8">
         <f t="shared" ref="G5:G38" si="7">G4+1</f>
         <v>44807</v>
       </c>
@@ -739,7 +733,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="6">
         <f t="shared" si="3"/>
         <v>2884.2000000000003</v>
       </c>
@@ -764,11 +758,11 @@
         <f t="shared" si="0"/>
         <v>2863.3</v>
       </c>
-      <c r="F6" s="10">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G6" s="10">
+      <c r="F6" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="8">
         <f t="shared" si="7"/>
         <v>44808</v>
       </c>
@@ -784,7 +778,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="6">
         <f t="shared" si="3"/>
         <v>2863.3</v>
       </c>
@@ -809,11 +803,11 @@
         <f t="shared" si="0"/>
         <v>2842.4</v>
       </c>
-      <c r="F7" s="10">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G7" s="10">
+      <c r="F7" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="8">
         <f t="shared" si="7"/>
         <v>44809</v>
       </c>
@@ -829,7 +823,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="6">
         <f t="shared" si="3"/>
         <v>2842.4</v>
       </c>
@@ -854,11 +848,11 @@
         <f t="shared" si="0"/>
         <v>2821.5000000000005</v>
       </c>
-      <c r="F8" s="10">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G8" s="10">
+      <c r="F8" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="8">
         <f t="shared" si="7"/>
         <v>44810</v>
       </c>
@@ -874,7 +868,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="6">
         <f t="shared" si="3"/>
         <v>2821.5000000000005</v>
       </c>
@@ -899,11 +893,11 @@
         <f t="shared" si="0"/>
         <v>2800.6000000000004</v>
       </c>
-      <c r="F9" s="10">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G9" s="10">
+      <c r="F9" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="8">
         <f t="shared" si="7"/>
         <v>44811</v>
       </c>
@@ -919,7 +913,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="6">
         <f t="shared" si="3"/>
         <v>2800.6000000000004</v>
       </c>
@@ -944,11 +938,11 @@
         <f t="shared" si="0"/>
         <v>2779.7000000000003</v>
       </c>
-      <c r="F10" s="10">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G10" s="10">
+      <c r="F10" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="8">
         <f t="shared" si="7"/>
         <v>44812</v>
       </c>
@@ -964,7 +958,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="6">
         <f t="shared" si="3"/>
         <v>2779.7000000000003</v>
       </c>
@@ -989,11 +983,11 @@
         <f t="shared" si="0"/>
         <v>2758.8</v>
       </c>
-      <c r="F11" s="10">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G11" s="10">
+      <c r="F11" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="8">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
@@ -1009,7 +1003,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="6">
         <f t="shared" si="3"/>
         <v>2758.8</v>
       </c>
@@ -1034,11 +1028,11 @@
         <f t="shared" si="0"/>
         <v>2737.9</v>
       </c>
-      <c r="F12" s="10">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G12" s="10">
+      <c r="F12" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="8">
         <f t="shared" si="7"/>
         <v>44814</v>
       </c>
@@ -1054,9 +1048,9 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="K12" s="7">
-        <f t="shared" si="3"/>
-        <v>2747.9</v>
+      <c r="K12" s="6">
+        <f t="shared" si="3"/>
+        <v>2738.9</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1079,11 +1073,11 @@
         <f t="shared" si="0"/>
         <v>2717.0000000000005</v>
       </c>
-      <c r="F13" s="10">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G13" s="10">
+      <c r="F13" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="8">
         <f t="shared" si="7"/>
         <v>44815</v>
       </c>
@@ -1099,9 +1093,9 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K13" s="8">
-        <f t="shared" si="3"/>
-        <v>2737.0000000000005</v>
+      <c r="K13" s="6">
+        <f t="shared" si="3"/>
+        <v>2719.0000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1124,11 +1118,11 @@
         <f t="shared" si="0"/>
         <v>2696.1000000000004</v>
       </c>
-      <c r="F14" s="10">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G14" s="10">
+      <c r="F14" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="8">
         <f t="shared" si="7"/>
         <v>44816</v>
       </c>
@@ -1144,9 +1138,9 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="K14" s="7">
-        <f t="shared" si="3"/>
-        <v>2726.1000000000004</v>
+      <c r="K14" s="6">
+        <f t="shared" si="3"/>
+        <v>2699.1000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1169,11 +1163,11 @@
         <f t="shared" si="0"/>
         <v>2675.2000000000003</v>
       </c>
-      <c r="F15" s="10">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G15" s="10">
+      <c r="F15" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="8">
         <f t="shared" si="7"/>
         <v>44817</v>
       </c>
@@ -1189,9 +1183,9 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="K15" s="8">
-        <f t="shared" si="3"/>
-        <v>2715.2000000000003</v>
+      <c r="K15" s="6">
+        <f t="shared" si="3"/>
+        <v>2679.2000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1214,11 +1208,11 @@
         <f t="shared" si="0"/>
         <v>2654.3</v>
       </c>
-      <c r="F16" s="10">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G16" s="10">
+      <c r="F16" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="8">
         <f t="shared" si="7"/>
         <v>44818</v>
       </c>
@@ -1234,9 +1228,9 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="K16" s="7">
-        <f t="shared" si="3"/>
-        <v>2704.3</v>
+      <c r="K16" s="6">
+        <f t="shared" si="3"/>
+        <v>2659.3</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1259,11 +1253,11 @@
         <f t="shared" si="0"/>
         <v>2633.4</v>
       </c>
-      <c r="F17" s="10">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G17" s="10">
+      <c r="F17" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="8">
         <f t="shared" si="7"/>
         <v>44819</v>
       </c>
@@ -1279,9 +1273,9 @@
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="K17" s="8">
-        <f t="shared" si="3"/>
-        <v>2693.4</v>
+      <c r="K17" s="6">
+        <f t="shared" si="3"/>
+        <v>2639.4</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1304,11 +1298,11 @@
         <f t="shared" si="0"/>
         <v>2612.5000000000005</v>
       </c>
-      <c r="F18" s="10">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G18" s="10">
+      <c r="F18" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="8">
         <f t="shared" si="7"/>
         <v>44820</v>
       </c>
@@ -1324,9 +1318,9 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="K18" s="7">
-        <f t="shared" si="3"/>
-        <v>2682.5000000000005</v>
+      <c r="K18" s="6">
+        <f t="shared" si="3"/>
+        <v>2619.5000000000005</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1349,11 +1343,11 @@
         <f t="shared" si="0"/>
         <v>2591.6000000000004</v>
       </c>
-      <c r="F19" s="10">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G19" s="10">
+      <c r="F19" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="8">
         <f t="shared" si="7"/>
         <v>44821</v>
       </c>
@@ -1369,9 +1363,9 @@
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="K19" s="8">
-        <f t="shared" si="3"/>
-        <v>2671.6000000000004</v>
+      <c r="K19" s="6">
+        <f t="shared" si="3"/>
+        <v>2599.6000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1394,11 +1388,11 @@
         <f t="shared" si="0"/>
         <v>2570.7000000000003</v>
       </c>
-      <c r="F20" s="10">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G20" s="10">
+      <c r="F20" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="8">
         <f t="shared" si="7"/>
         <v>44822</v>
       </c>
@@ -1414,9 +1408,9 @@
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="K20" s="7">
-        <f t="shared" si="3"/>
-        <v>2660.7000000000003</v>
+      <c r="K20" s="6">
+        <f t="shared" si="3"/>
+        <v>2579.7000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1439,11 +1433,11 @@
         <f t="shared" si="0"/>
         <v>2549.8000000000002</v>
       </c>
-      <c r="F21" s="10">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G21" s="10">
+      <c r="F21" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="8">
         <f t="shared" si="7"/>
         <v>44823</v>
       </c>
@@ -1459,9 +1453,9 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="K21" s="8">
-        <f t="shared" si="3"/>
-        <v>2649.8</v>
+      <c r="K21" s="6">
+        <f t="shared" si="3"/>
+        <v>2559.8000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1484,11 +1478,11 @@
         <f t="shared" si="0"/>
         <v>2528.9</v>
       </c>
-      <c r="F22" s="10">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G22" s="10">
+      <c r="F22" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="8">
         <f t="shared" si="7"/>
         <v>44824</v>
       </c>
@@ -1504,9 +1498,9 @@
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="K22" s="7">
-        <f t="shared" si="3"/>
-        <v>2638.9</v>
+      <c r="K22" s="6">
+        <f t="shared" si="3"/>
+        <v>2539.9</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1529,11 +1523,11 @@
         <f t="shared" si="0"/>
         <v>2508.0000000000005</v>
       </c>
-      <c r="F23" s="10">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G23" s="10">
+      <c r="F23" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="8">
         <f t="shared" si="7"/>
         <v>44825</v>
       </c>
@@ -1551,7 +1545,7 @@
       </c>
       <c r="K23" s="6">
         <f t="shared" si="3"/>
-        <v>2628.0000000000005</v>
+        <v>2520.0000000000005</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1574,11 +1568,11 @@
         <f t="shared" si="0"/>
         <v>2487.1000000000004</v>
       </c>
-      <c r="F24" s="10">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G24" s="10">
+      <c r="F24" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="8">
         <f t="shared" si="7"/>
         <v>44826</v>
       </c>
@@ -1594,9 +1588,9 @@
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="K24" s="7">
-        <f t="shared" si="3"/>
-        <v>2617.1000000000004</v>
+      <c r="K24" s="6">
+        <f t="shared" si="3"/>
+        <v>2500.1000000000004</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1619,11 +1613,11 @@
         <f t="shared" si="0"/>
         <v>2466.2000000000003</v>
       </c>
-      <c r="F25" s="10">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G25" s="10">
+      <c r="F25" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="8">
         <f t="shared" si="7"/>
         <v>44827</v>
       </c>
@@ -1639,9 +1633,9 @@
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="K25" s="8">
-        <f t="shared" si="3"/>
-        <v>2606.2000000000003</v>
+      <c r="K25" s="6">
+        <f t="shared" si="3"/>
+        <v>2480.2000000000003</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1664,11 +1658,11 @@
         <f t="shared" si="0"/>
         <v>2445.3000000000002</v>
       </c>
-      <c r="F26" s="10">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G26" s="10">
+      <c r="F26" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="8">
         <f t="shared" si="7"/>
         <v>44828</v>
       </c>
@@ -1684,9 +1678,9 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="K26" s="7">
-        <f t="shared" si="3"/>
-        <v>2595.3000000000002</v>
+      <c r="K26" s="6">
+        <f t="shared" si="3"/>
+        <v>2460.3000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1709,11 +1703,11 @@
         <f t="shared" si="0"/>
         <v>2424.4</v>
       </c>
-      <c r="F27" s="10">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G27" s="10">
+      <c r="F27" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="8">
         <f t="shared" si="7"/>
         <v>44829</v>
       </c>
@@ -1729,9 +1723,9 @@
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="K27" s="8">
-        <f t="shared" si="3"/>
-        <v>2584.4</v>
+      <c r="K27" s="6">
+        <f t="shared" si="3"/>
+        <v>2440.4</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1754,11 +1748,11 @@
         <f t="shared" si="0"/>
         <v>2403.5000000000005</v>
       </c>
-      <c r="F28" s="10">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G28" s="10">
+      <c r="F28" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="8">
         <f t="shared" si="7"/>
         <v>44830</v>
       </c>
@@ -1774,9 +1768,9 @@
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="K28" s="7">
-        <f t="shared" si="3"/>
-        <v>2573.5000000000005</v>
+      <c r="K28" s="6">
+        <f t="shared" si="3"/>
+        <v>2420.5000000000005</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1799,11 +1793,11 @@
         <f t="shared" si="0"/>
         <v>2382.6000000000004</v>
       </c>
-      <c r="F29" s="10">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G29" s="10">
+      <c r="F29" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="8">
         <f t="shared" si="7"/>
         <v>44831</v>
       </c>
@@ -1819,9 +1813,9 @@
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="K29" s="8">
-        <f t="shared" si="3"/>
-        <v>2562.6000000000004</v>
+      <c r="K29" s="6">
+        <f t="shared" si="3"/>
+        <v>2400.6000000000004</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1844,11 +1838,11 @@
         <f t="shared" si="0"/>
         <v>2361.7000000000003</v>
       </c>
-      <c r="F30" s="10">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G30" s="10">
+      <c r="F30" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="8">
         <f t="shared" si="7"/>
         <v>44832</v>
       </c>
@@ -1864,9 +1858,9 @@
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
-      <c r="K30" s="7">
-        <f t="shared" si="3"/>
-        <v>2551.7000000000003</v>
+      <c r="K30" s="6">
+        <f t="shared" si="3"/>
+        <v>2380.7000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1889,11 +1883,11 @@
         <f t="shared" si="0"/>
         <v>2340.8000000000002</v>
       </c>
-      <c r="F31" s="10">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G31" s="10">
+      <c r="F31" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="8">
         <f t="shared" si="7"/>
         <v>44833</v>
       </c>
@@ -1909,9 +1903,9 @@
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="K31" s="8">
-        <f t="shared" si="3"/>
-        <v>2540.8000000000002</v>
+      <c r="K31" s="6">
+        <f t="shared" si="3"/>
+        <v>2360.8000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1934,11 +1928,11 @@
         <f t="shared" si="0"/>
         <v>2319.9</v>
       </c>
-      <c r="F32" s="10">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G32" s="10">
+      <c r="F32" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="8">
         <f t="shared" si="7"/>
         <v>44834</v>
       </c>
@@ -1954,9 +1948,9 @@
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="K32" s="7">
-        <f t="shared" si="3"/>
-        <v>2529.9</v>
+      <c r="K32" s="6">
+        <f t="shared" si="3"/>
+        <v>2340.9</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1979,11 +1973,11 @@
         <f t="shared" si="0"/>
         <v>2299.0000000000005</v>
       </c>
-      <c r="F33" s="10">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G33" s="10">
+      <c r="F33" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="8">
         <f t="shared" si="7"/>
         <v>44835</v>
       </c>
@@ -1999,9 +1993,9 @@
         <f t="shared" si="2"/>
         <v>220</v>
       </c>
-      <c r="K33" s="8">
-        <f t="shared" si="3"/>
-        <v>2519.0000000000005</v>
+      <c r="K33" s="6">
+        <f t="shared" si="3"/>
+        <v>2321.0000000000005</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2024,11 +2018,11 @@
         <f t="shared" si="0"/>
         <v>2278.1000000000004</v>
       </c>
-      <c r="F34" s="10">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G34" s="10">
+      <c r="F34" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="8">
         <f t="shared" si="7"/>
         <v>44836</v>
       </c>
@@ -2044,9 +2038,9 @@
         <f t="shared" si="2"/>
         <v>230</v>
       </c>
-      <c r="K34" s="7">
-        <f t="shared" si="3"/>
-        <v>2508.1000000000004</v>
+      <c r="K34" s="6">
+        <f t="shared" si="3"/>
+        <v>2301.1000000000004</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2069,11 +2063,11 @@
         <f t="shared" si="0"/>
         <v>1128.6000000000001</v>
       </c>
-      <c r="F35" s="10">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G35" s="10">
+      <c r="F35" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="8">
         <f t="shared" si="7"/>
         <v>44837</v>
       </c>
@@ -2089,9 +2083,9 @@
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="K35" s="8">
-        <f t="shared" si="3"/>
-        <v>1368.6000000000001</v>
+      <c r="K35" s="6">
+        <f t="shared" si="3"/>
+        <v>1152.6000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2114,11 +2108,11 @@
         <f t="shared" si="0"/>
         <v>1118.1500000000001</v>
       </c>
-      <c r="F36" s="10">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G36" s="10">
+      <c r="F36" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="8">
         <f t="shared" si="7"/>
         <v>44838</v>
       </c>
@@ -2134,9 +2128,9 @@
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="K36" s="9">
-        <f t="shared" si="3"/>
-        <v>1368.15</v>
+      <c r="K36" s="6">
+        <f t="shared" si="3"/>
+        <v>1143.1500000000001</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2159,11 +2153,11 @@
         <f t="shared" si="0"/>
         <v>1107.7</v>
       </c>
-      <c r="F37" s="10">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G37" s="10">
+      <c r="F37" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="8">
         <f t="shared" si="7"/>
         <v>44839</v>
       </c>
@@ -2179,9 +2173,9 @@
         <f t="shared" si="2"/>
         <v>260</v>
       </c>
-      <c r="K37" s="7">
-        <f t="shared" si="3"/>
-        <v>1367.7</v>
+      <c r="K37" s="6">
+        <f t="shared" si="3"/>
+        <v>1133.7</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2204,11 +2198,11 @@
         <f t="shared" si="0"/>
         <v>1097.25</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="8">
         <f>$F$3</f>
         <v>44813</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="8">
         <f t="shared" si="7"/>
         <v>44840</v>
       </c>
@@ -2224,9 +2218,9 @@
         <f t="shared" si="2"/>
         <v>270</v>
       </c>
-      <c r="K38" s="9">
-        <f t="shared" si="3"/>
-        <v>1367.25</v>
+      <c r="K38" s="6">
+        <f t="shared" si="3"/>
+        <v>1124.25</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2236,7 +2230,7 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="10"/>
+      <c r="G39" s="8"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -2249,7 +2243,7 @@
       </c>
       <c r="C40" s="6">
         <f>SUM(K3:K38)</f>
-        <v>91497.3</v>
+        <v>88095.3</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
